--- a/Sophia's Budget Calculator.xlsx
+++ b/Sophia's Budget Calculator.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HENRY\Team Alpha Budget Calc\BudgetCalculator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FB3BEE1-8C07-4213-B54A-F6A7F04F3AB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4FB9AEEB-F61B-43CB-AE42-8A4D2193E03D}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="25">
   <si>
     <t>Date</t>
   </si>
@@ -76,15 +75,49 @@
   <si>
     <t>Monthly Income</t>
   </si>
+  <si>
+    <t>₦2,300.00</t>
+  </si>
+  <si>
+    <t>₦2,000.00</t>
+  </si>
+  <si>
+    <t>₦2,500.00</t>
+  </si>
+  <si>
+    <t>₦1,500.00</t>
+  </si>
+  <si>
+    <t>₦2,400.00</t>
+  </si>
+  <si>
+    <t>₦2,250.00</t>
+  </si>
+  <si>
+    <t>₦2,100.00</t>
+  </si>
+  <si>
+    <t>₦1,900.00</t>
+  </si>
+  <si>
+    <t>₦3,000.00</t>
+  </si>
+  <si>
+    <t>₦2,550.00</t>
+  </si>
+  <si>
+    <t>Total Expenses in a month</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="dddd"/>
+    <numFmt numFmtId="165" formatCode="[$₦]#,##0.00"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,16 +125,38 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF76A5AF"/>
+        <bgColor rgb="FF76A5AF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -109,17 +164,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal_Sheet1" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -430,24 +510,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99CBAE9E-8C6A-4CEE-A244-2829EEDDEF3C}">
-  <dimension ref="A1:N366"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O366"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+      <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="6" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="24.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -491,7 +578,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>44197</v>
       </c>
@@ -499,8 +586,34 @@
         <f>WEEKDAY(A2)</f>
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C2" s="3">
+        <v>150000</v>
+      </c>
+      <c r="D2" s="3">
+        <v>50000</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="3">
+        <v>645</v>
+      </c>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="3">
+        <f>SUM(C2:L2)</f>
+        <v>200645</v>
+      </c>
+      <c r="N2" s="3">
+        <v>1200000</v>
+      </c>
+      <c r="O2" s="6"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>44198</v>
       </c>
@@ -508,8 +621,28 @@
         <f t="shared" ref="B3:B66" si="0">WEEKDAY(A3)</f>
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="3">
+        <v>600</v>
+      </c>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="3">
+        <f>SUM(C3:L3)</f>
+        <v>600</v>
+      </c>
+      <c r="N3" s="5"/>
+      <c r="O3" s="6"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>44199</v>
       </c>
@@ -517,8 +650,28 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="G4" s="3">
+        <v>500</v>
+      </c>
+      <c r="H4" s="5"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="3">
+        <f t="shared" ref="M3:M32" si="1">SUM(C4:L4)</f>
+        <v>500</v>
+      </c>
+      <c r="N4" s="5"/>
+      <c r="O4" s="6"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>44200</v>
       </c>
@@ -526,8 +679,28 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="3">
+        <v>200</v>
+      </c>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="3">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="N5" s="5"/>
+      <c r="O5" s="6"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>44201</v>
       </c>
@@ -535,8 +708,30 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="3">
+        <v>645.16</v>
+      </c>
+      <c r="H6" s="5"/>
+      <c r="I6" s="3">
+        <v>5000</v>
+      </c>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="3">
+        <f t="shared" si="1"/>
+        <v>5645.16</v>
+      </c>
+      <c r="N6" s="5"/>
+      <c r="O6" s="6"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>44202</v>
       </c>
@@ -544,8 +739,28 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="3">
+        <v>600</v>
+      </c>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="3">
+        <f t="shared" si="1"/>
+        <v>600</v>
+      </c>
+      <c r="N7" s="5"/>
+      <c r="O7" s="6"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>44203</v>
       </c>
@@ -553,8 +768,30 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="3">
+        <v>5000</v>
+      </c>
+      <c r="G8" s="3">
+        <v>645</v>
+      </c>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="3">
+        <f t="shared" si="1"/>
+        <v>5645</v>
+      </c>
+      <c r="N8" s="5"/>
+      <c r="O8" s="6"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>44204</v>
       </c>
@@ -562,8 +799,28 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="G9" s="3">
+        <v>390</v>
+      </c>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="3">
+        <f t="shared" si="1"/>
+        <v>390</v>
+      </c>
+      <c r="N9" s="5"/>
+      <c r="O9" s="6"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>44205</v>
       </c>
@@ -571,8 +828,32 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C10" s="5"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="5"/>
+      <c r="G10" s="3">
+        <v>200</v>
+      </c>
+      <c r="H10" s="3">
+        <v>40500</v>
+      </c>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="3">
+        <v>5000</v>
+      </c>
+      <c r="L10" s="5"/>
+      <c r="M10" s="3">
+        <f t="shared" si="1"/>
+        <v>45700</v>
+      </c>
+      <c r="N10" s="5"/>
+      <c r="O10" s="6"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>44206</v>
       </c>
@@ -580,8 +861,28 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="5"/>
+      <c r="G11" s="3">
+        <v>800</v>
+      </c>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="3">
+        <f t="shared" si="1"/>
+        <v>800</v>
+      </c>
+      <c r="N11" s="5"/>
+      <c r="O11" s="6"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>44207</v>
       </c>
@@ -589,8 +890,28 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="5"/>
+      <c r="G12" s="3">
+        <v>600</v>
+      </c>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="3">
+        <f t="shared" si="1"/>
+        <v>600</v>
+      </c>
+      <c r="N12" s="5"/>
+      <c r="O12" s="6"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>44208</v>
       </c>
@@ -598,8 +919,30 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="5"/>
+      <c r="G13" s="3">
+        <v>400</v>
+      </c>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="3">
+        <v>150000</v>
+      </c>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="3">
+        <f t="shared" si="1"/>
+        <v>150400</v>
+      </c>
+      <c r="N13" s="5"/>
+      <c r="O13" s="6"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>44209</v>
       </c>
@@ -607,8 +950,28 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="5"/>
+      <c r="G14" s="3">
+        <v>750</v>
+      </c>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="3">
+        <f t="shared" si="1"/>
+        <v>750</v>
+      </c>
+      <c r="N14" s="5"/>
+      <c r="O14" s="6"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>44210</v>
       </c>
@@ -616,8 +979,30 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="3">
+        <v>5000</v>
+      </c>
+      <c r="G15" s="3">
+        <v>300</v>
+      </c>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="3">
+        <f t="shared" si="1"/>
+        <v>5300</v>
+      </c>
+      <c r="N15" s="5"/>
+      <c r="O15" s="6"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>44211</v>
       </c>
@@ -625,8 +1010,32 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C16" s="5"/>
+      <c r="D16" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="5"/>
+      <c r="G16" s="3">
+        <v>645</v>
+      </c>
+      <c r="H16" s="5"/>
+      <c r="I16" s="3">
+        <v>25000</v>
+      </c>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="3">
+        <f t="shared" si="1"/>
+        <v>35645</v>
+      </c>
+      <c r="N16" s="5"/>
+      <c r="O16" s="6"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>44212</v>
       </c>
@@ -634,8 +1043,32 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" s="5"/>
+      <c r="G17" s="3">
+        <v>645</v>
+      </c>
+      <c r="H17" s="3">
+        <v>6000</v>
+      </c>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="3">
+        <v>5000</v>
+      </c>
+      <c r="L17" s="5"/>
+      <c r="M17" s="3">
+        <f t="shared" si="1"/>
+        <v>11645</v>
+      </c>
+      <c r="N17" s="5"/>
+      <c r="O17" s="6"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>44213</v>
       </c>
@@ -643,8 +1076,28 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="5"/>
+      <c r="G18" s="3">
+        <v>645</v>
+      </c>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="3">
+        <f t="shared" si="1"/>
+        <v>645</v>
+      </c>
+      <c r="N18" s="5"/>
+      <c r="O18" s="6"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>44214</v>
       </c>
@@ -652,8 +1105,28 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="5"/>
+      <c r="G19" s="3">
+        <v>645</v>
+      </c>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="3">
+        <f t="shared" si="1"/>
+        <v>645</v>
+      </c>
+      <c r="N19" s="5"/>
+      <c r="O19" s="6"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>44215</v>
       </c>
@@ -661,8 +1134,28 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" s="5"/>
+      <c r="G20" s="3">
+        <v>300</v>
+      </c>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="3">
+        <f t="shared" si="1"/>
+        <v>300</v>
+      </c>
+      <c r="N20" s="5"/>
+      <c r="O20" s="6"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>44216</v>
       </c>
@@ -670,8 +1163,28 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" s="5"/>
+      <c r="G21" s="3">
+        <v>150</v>
+      </c>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="3">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="N21" s="5"/>
+      <c r="O21" s="6"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>44217</v>
       </c>
@@ -679,8 +1192,30 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" s="3">
+        <v>5000</v>
+      </c>
+      <c r="G22" s="3">
+        <v>645</v>
+      </c>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="3">
+        <f t="shared" si="1"/>
+        <v>5645</v>
+      </c>
+      <c r="N22" s="5"/>
+      <c r="O22" s="6"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>44218</v>
       </c>
@@ -688,8 +1223,28 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23" s="5"/>
+      <c r="G23" s="3">
+        <v>645</v>
+      </c>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="3">
+        <f t="shared" si="1"/>
+        <v>645</v>
+      </c>
+      <c r="N23" s="5"/>
+      <c r="O23" s="6"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>44219</v>
       </c>
@@ -697,8 +1252,32 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C24" s="5"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24" s="5"/>
+      <c r="G24" s="3">
+        <v>600</v>
+      </c>
+      <c r="H24" s="3">
+        <v>62500</v>
+      </c>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="3">
+        <v>5000</v>
+      </c>
+      <c r="L24" s="5"/>
+      <c r="M24" s="3">
+        <f t="shared" si="1"/>
+        <v>68100</v>
+      </c>
+      <c r="N24" s="5"/>
+      <c r="O24" s="6"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>44220</v>
       </c>
@@ -706,8 +1285,28 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F25" s="5"/>
+      <c r="G25" s="3">
+        <v>400</v>
+      </c>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="3">
+        <f t="shared" si="1"/>
+        <v>400</v>
+      </c>
+      <c r="N25" s="5"/>
+      <c r="O25" s="6"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>44221</v>
       </c>
@@ -715,8 +1314,28 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" s="5"/>
+      <c r="G26" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="3">
+        <f t="shared" si="1"/>
+        <v>1000</v>
+      </c>
+      <c r="N26" s="5"/>
+      <c r="O26" s="6"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>44222</v>
       </c>
@@ -724,8 +1343,28 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" s="5"/>
+      <c r="G27" s="3">
+        <v>645</v>
+      </c>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="3">
+        <f t="shared" si="1"/>
+        <v>645</v>
+      </c>
+      <c r="N27" s="5"/>
+      <c r="O27" s="6"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>44223</v>
       </c>
@@ -733,8 +1372,28 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F28" s="5"/>
+      <c r="G28" s="3">
+        <v>645</v>
+      </c>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="3">
+        <f t="shared" si="1"/>
+        <v>645</v>
+      </c>
+      <c r="N28" s="5"/>
+      <c r="O28" s="6"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>44224</v>
       </c>
@@ -742,8 +1401,30 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F29" s="3">
+        <v>5000</v>
+      </c>
+      <c r="G29" s="3">
+        <v>645</v>
+      </c>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="3">
+        <f t="shared" si="1"/>
+        <v>5645</v>
+      </c>
+      <c r="N29" s="5"/>
+      <c r="O29" s="7"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>44225</v>
       </c>
@@ -751,8 +1432,30 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C30" s="5"/>
+      <c r="D30" s="3">
+        <v>40000</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F30" s="5"/>
+      <c r="G30" s="3">
+        <v>645</v>
+      </c>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="3">
+        <f t="shared" si="1"/>
+        <v>40645</v>
+      </c>
+      <c r="N30" s="5"/>
+      <c r="O30" s="7"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>44226</v>
       </c>
@@ -760,8 +1463,34 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F31" s="5"/>
+      <c r="G31" s="3">
+        <v>645</v>
+      </c>
+      <c r="H31" s="3">
+        <v>62500</v>
+      </c>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="3">
+        <v>5000</v>
+      </c>
+      <c r="L31" s="5"/>
+      <c r="M31" s="3">
+        <f t="shared" si="1"/>
+        <v>68145</v>
+      </c>
+      <c r="N31" s="5"/>
+      <c r="O31" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>44227</v>
       </c>
@@ -769,8 +1498,31 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F32" s="9"/>
+      <c r="G32" s="10">
+        <v>645</v>
+      </c>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="3">
+        <f t="shared" si="1"/>
+        <v>645</v>
+      </c>
+      <c r="N32" s="9"/>
+      <c r="O32" s="10">
+        <f>SUM(M2:M32)</f>
+        <v>658965.16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>44228</v>
       </c>
@@ -778,8 +1530,29 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C33" s="3"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F33" s="5"/>
+      <c r="G33" s="3">
+        <v>645</v>
+      </c>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="3">
+        <v>645</v>
+      </c>
+      <c r="N33" s="3">
+        <v>1200000</v>
+      </c>
+      <c r="O33" s="6"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>44229</v>
       </c>
@@ -787,8 +1560,27 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F34" s="5"/>
+      <c r="G34" s="3">
+        <v>600</v>
+      </c>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="3">
+        <v>600</v>
+      </c>
+      <c r="N34" s="5"/>
+      <c r="O34" s="6"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>44230</v>
       </c>
@@ -796,8 +1588,27 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F35" s="5"/>
+      <c r="G35" s="3">
+        <v>500</v>
+      </c>
+      <c r="H35" s="5"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="3">
+        <v>500</v>
+      </c>
+      <c r="N35" s="5"/>
+      <c r="O35" s="6"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>44231</v>
       </c>
@@ -805,8 +1616,27 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F36" s="5"/>
+      <c r="G36" s="3">
+        <v>200</v>
+      </c>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="3">
+        <v>200</v>
+      </c>
+      <c r="N36" s="5"/>
+      <c r="O36" s="6"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>44232</v>
       </c>
@@ -814,8 +1644,29 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F37" s="5"/>
+      <c r="G37" s="3">
+        <v>645.16</v>
+      </c>
+      <c r="H37" s="5"/>
+      <c r="I37" s="3">
+        <v>5000</v>
+      </c>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="5"/>
+      <c r="M37" s="3">
+        <v>5645.16</v>
+      </c>
+      <c r="N37" s="5"/>
+      <c r="O37" s="6"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>44233</v>
       </c>
@@ -823,8 +1674,27 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F38" s="5"/>
+      <c r="G38" s="3">
+        <v>600</v>
+      </c>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="3">
+        <v>600</v>
+      </c>
+      <c r="N38" s="5"/>
+      <c r="O38" s="6"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>44234</v>
       </c>
@@ -832,8 +1702,29 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F39" s="3">
+        <v>5000</v>
+      </c>
+      <c r="G39" s="3">
+        <v>645</v>
+      </c>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5"/>
+      <c r="L39" s="5"/>
+      <c r="M39" s="3">
+        <v>5645</v>
+      </c>
+      <c r="N39" s="5"/>
+      <c r="O39" s="6"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>44235</v>
       </c>
@@ -841,8 +1732,27 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F40" s="5"/>
+      <c r="G40" s="3">
+        <v>390</v>
+      </c>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5"/>
+      <c r="M40" s="3">
+        <v>390</v>
+      </c>
+      <c r="N40" s="5"/>
+      <c r="O40" s="6"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>44236</v>
       </c>
@@ -850,8 +1760,31 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C41" s="5"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F41" s="5"/>
+      <c r="G41" s="3">
+        <v>200</v>
+      </c>
+      <c r="H41" s="3">
+        <v>40500</v>
+      </c>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="3">
+        <v>5000</v>
+      </c>
+      <c r="L41" s="5"/>
+      <c r="M41" s="3">
+        <v>45700</v>
+      </c>
+      <c r="N41" s="5"/>
+      <c r="O41" s="6"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>44237</v>
       </c>
@@ -859,8 +1792,27 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F42" s="5"/>
+      <c r="G42" s="3">
+        <v>800</v>
+      </c>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5"/>
+      <c r="K42" s="5"/>
+      <c r="L42" s="5"/>
+      <c r="M42" s="3">
+        <v>800</v>
+      </c>
+      <c r="N42" s="5"/>
+      <c r="O42" s="6"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>44238</v>
       </c>
@@ -868,8 +1820,27 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F43" s="5"/>
+      <c r="G43" s="3">
+        <v>600</v>
+      </c>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="5"/>
+      <c r="K43" s="5"/>
+      <c r="L43" s="5"/>
+      <c r="M43" s="3">
+        <v>600</v>
+      </c>
+      <c r="N43" s="5"/>
+      <c r="O43" s="6"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>44239</v>
       </c>
@@ -877,8 +1848,31 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C44" s="5"/>
+      <c r="D44" s="3">
+        <v>50000</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F44" s="5"/>
+      <c r="G44" s="3">
+        <v>400</v>
+      </c>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="3">
+        <v>150000</v>
+      </c>
+      <c r="K44" s="5"/>
+      <c r="L44" s="5"/>
+      <c r="M44" s="3">
+        <v>200400</v>
+      </c>
+      <c r="N44" s="5"/>
+      <c r="O44" s="6"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44240</v>
       </c>
@@ -886,8 +1880,27 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F45" s="5"/>
+      <c r="G45" s="3">
+        <v>750</v>
+      </c>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
+      <c r="J45" s="5"/>
+      <c r="K45" s="5"/>
+      <c r="L45" s="5"/>
+      <c r="M45" s="3">
+        <v>750</v>
+      </c>
+      <c r="N45" s="5"/>
+      <c r="O45" s="6"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44241</v>
       </c>
@@ -895,8 +1908,29 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F46" s="3">
+        <v>5000</v>
+      </c>
+      <c r="G46" s="3">
+        <v>300</v>
+      </c>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
+      <c r="J46" s="5"/>
+      <c r="K46" s="5"/>
+      <c r="L46" s="5"/>
+      <c r="M46" s="3">
+        <v>5300</v>
+      </c>
+      <c r="N46" s="5"/>
+      <c r="O46" s="6"/>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>44242</v>
       </c>
@@ -904,8 +1938,29 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C47" s="5"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F47" s="5"/>
+      <c r="G47" s="3">
+        <v>645</v>
+      </c>
+      <c r="H47" s="5"/>
+      <c r="I47" s="3">
+        <v>25000</v>
+      </c>
+      <c r="J47" s="5"/>
+      <c r="K47" s="5"/>
+      <c r="L47" s="5"/>
+      <c r="M47" s="3">
+        <v>25645</v>
+      </c>
+      <c r="N47" s="5"/>
+      <c r="O47" s="6"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>44243</v>
       </c>
@@ -913,8 +1968,31 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F48" s="5"/>
+      <c r="G48" s="3">
+        <v>645</v>
+      </c>
+      <c r="H48" s="3">
+        <v>6000</v>
+      </c>
+      <c r="I48" s="5"/>
+      <c r="J48" s="5"/>
+      <c r="K48" s="3">
+        <v>5000</v>
+      </c>
+      <c r="L48" s="5"/>
+      <c r="M48" s="3">
+        <v>11645</v>
+      </c>
+      <c r="N48" s="5"/>
+      <c r="O48" s="6"/>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>44244</v>
       </c>
@@ -922,8 +2000,27 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F49" s="5"/>
+      <c r="G49" s="3">
+        <v>645</v>
+      </c>
+      <c r="H49" s="5"/>
+      <c r="I49" s="5"/>
+      <c r="J49" s="5"/>
+      <c r="K49" s="5"/>
+      <c r="L49" s="5"/>
+      <c r="M49" s="3">
+        <v>645</v>
+      </c>
+      <c r="N49" s="5"/>
+      <c r="O49" s="6"/>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>44245</v>
       </c>
@@ -931,8 +2028,27 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F50" s="5"/>
+      <c r="G50" s="3">
+        <v>645</v>
+      </c>
+      <c r="H50" s="5"/>
+      <c r="I50" s="5"/>
+      <c r="J50" s="5"/>
+      <c r="K50" s="5"/>
+      <c r="L50" s="5"/>
+      <c r="M50" s="3">
+        <v>645</v>
+      </c>
+      <c r="N50" s="5"/>
+      <c r="O50" s="6"/>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>44246</v>
       </c>
@@ -940,8 +2056,27 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F51" s="5"/>
+      <c r="G51" s="3">
+        <v>300</v>
+      </c>
+      <c r="H51" s="5"/>
+      <c r="I51" s="5"/>
+      <c r="J51" s="5"/>
+      <c r="K51" s="5"/>
+      <c r="L51" s="5"/>
+      <c r="M51" s="3">
+        <v>300</v>
+      </c>
+      <c r="N51" s="5"/>
+      <c r="O51" s="6"/>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>44247</v>
       </c>
@@ -949,8 +2084,27 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F52" s="5"/>
+      <c r="G52" s="3">
+        <v>150</v>
+      </c>
+      <c r="H52" s="5"/>
+      <c r="I52" s="5"/>
+      <c r="J52" s="5"/>
+      <c r="K52" s="5"/>
+      <c r="L52" s="5"/>
+      <c r="M52" s="3">
+        <v>150</v>
+      </c>
+      <c r="N52" s="5"/>
+      <c r="O52" s="6"/>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>44248</v>
       </c>
@@ -958,8 +2112,29 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F53" s="3">
+        <v>5000</v>
+      </c>
+      <c r="G53" s="3">
+        <v>645</v>
+      </c>
+      <c r="H53" s="5"/>
+      <c r="I53" s="5"/>
+      <c r="J53" s="5"/>
+      <c r="K53" s="5"/>
+      <c r="L53" s="5"/>
+      <c r="M53" s="3">
+        <v>5645</v>
+      </c>
+      <c r="N53" s="5"/>
+      <c r="O53" s="6"/>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>44249</v>
       </c>
@@ -967,8 +2142,27 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F54" s="5"/>
+      <c r="G54" s="3">
+        <v>645</v>
+      </c>
+      <c r="H54" s="5"/>
+      <c r="I54" s="5"/>
+      <c r="J54" s="5"/>
+      <c r="K54" s="5"/>
+      <c r="L54" s="5"/>
+      <c r="M54" s="3">
+        <v>645</v>
+      </c>
+      <c r="N54" s="5"/>
+      <c r="O54" s="6"/>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>44250</v>
       </c>
@@ -976,8 +2170,31 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C55" s="5"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F55" s="5"/>
+      <c r="G55" s="3">
+        <v>600</v>
+      </c>
+      <c r="H55" s="3">
+        <v>62500</v>
+      </c>
+      <c r="I55" s="5"/>
+      <c r="J55" s="5"/>
+      <c r="K55" s="3">
+        <v>5000</v>
+      </c>
+      <c r="L55" s="5"/>
+      <c r="M55" s="3">
+        <v>68100</v>
+      </c>
+      <c r="N55" s="5"/>
+      <c r="O55" s="6"/>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>44251</v>
       </c>
@@ -985,8 +2202,27 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F56" s="5"/>
+      <c r="G56" s="3">
+        <v>400</v>
+      </c>
+      <c r="H56" s="5"/>
+      <c r="I56" s="5"/>
+      <c r="J56" s="5"/>
+      <c r="K56" s="5"/>
+      <c r="L56" s="5"/>
+      <c r="M56" s="3">
+        <v>400</v>
+      </c>
+      <c r="N56" s="5"/>
+      <c r="O56" s="7"/>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>44252</v>
       </c>
@@ -994,8 +2230,27 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F57" s="5"/>
+      <c r="G57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H57" s="5"/>
+      <c r="I57" s="5"/>
+      <c r="J57" s="5"/>
+      <c r="K57" s="5"/>
+      <c r="L57" s="5"/>
+      <c r="M57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="N57" s="5"/>
+      <c r="O57" s="7"/>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>44253</v>
       </c>
@@ -1003,8 +2258,29 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C58" s="5"/>
+      <c r="D58" s="3">
+        <v>50000</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F58" s="5"/>
+      <c r="G58" s="3">
+        <v>645</v>
+      </c>
+      <c r="H58" s="5"/>
+      <c r="I58" s="5"/>
+      <c r="J58" s="5"/>
+      <c r="K58" s="5"/>
+      <c r="L58" s="5"/>
+      <c r="M58" s="3">
+        <v>50645</v>
+      </c>
+      <c r="N58" s="5"/>
+      <c r="O58" s="6"/>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>44254</v>
       </c>
@@ -1012,8 +2288,29 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F59" s="5"/>
+      <c r="G59" s="3">
+        <v>645</v>
+      </c>
+      <c r="H59" s="5"/>
+      <c r="I59" s="5"/>
+      <c r="J59" s="5"/>
+      <c r="K59" s="5"/>
+      <c r="L59" s="5"/>
+      <c r="M59" s="3">
+        <v>645</v>
+      </c>
+      <c r="N59" s="5"/>
+      <c r="O59" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>44255</v>
       </c>
@@ -1021,8 +2318,31 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C60" s="9"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F60" s="10">
+        <v>5000</v>
+      </c>
+      <c r="G60" s="10">
+        <v>645</v>
+      </c>
+      <c r="H60" s="9"/>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c r="L60" s="10"/>
+      <c r="M60" s="10">
+        <v>5645</v>
+      </c>
+      <c r="N60" s="9"/>
+      <c r="O60" s="10">
+        <v>441275.16</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>44256</v>
       </c>
@@ -1030,8 +2350,29 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C61" s="3"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F61" s="5"/>
+      <c r="G61" s="3">
+        <v>645</v>
+      </c>
+      <c r="H61" s="5"/>
+      <c r="I61" s="5"/>
+      <c r="J61" s="5"/>
+      <c r="K61" s="5"/>
+      <c r="L61" s="5"/>
+      <c r="M61" s="3">
+        <v>645</v>
+      </c>
+      <c r="N61" s="3">
+        <v>1200000</v>
+      </c>
+      <c r="O61" s="6"/>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>44257</v>
       </c>
@@ -1039,8 +2380,27 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F62" s="5"/>
+      <c r="G62" s="3">
+        <v>600</v>
+      </c>
+      <c r="H62" s="5"/>
+      <c r="I62" s="5"/>
+      <c r="J62" s="5"/>
+      <c r="K62" s="5"/>
+      <c r="L62" s="5"/>
+      <c r="M62" s="3">
+        <v>600</v>
+      </c>
+      <c r="N62" s="5"/>
+      <c r="O62" s="6"/>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>44258</v>
       </c>
@@ -1048,8 +2408,27 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C63" s="5"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F63" s="5"/>
+      <c r="G63" s="3">
+        <v>500</v>
+      </c>
+      <c r="H63" s="5"/>
+      <c r="I63" s="5"/>
+      <c r="J63" s="5"/>
+      <c r="K63" s="5"/>
+      <c r="L63" s="5"/>
+      <c r="M63" s="3">
+        <v>500</v>
+      </c>
+      <c r="N63" s="5"/>
+      <c r="O63" s="6"/>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>44259</v>
       </c>
@@ -1057,8 +2436,27 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F64" s="5"/>
+      <c r="G64" s="3">
+        <v>200</v>
+      </c>
+      <c r="H64" s="5"/>
+      <c r="I64" s="5"/>
+      <c r="J64" s="5"/>
+      <c r="K64" s="5"/>
+      <c r="L64" s="5"/>
+      <c r="M64" s="3">
+        <v>200</v>
+      </c>
+      <c r="N64" s="5"/>
+      <c r="O64" s="6"/>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>44260</v>
       </c>
@@ -1066,8 +2464,29 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C65" s="5"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F65" s="5"/>
+      <c r="G65" s="3">
+        <v>645.16</v>
+      </c>
+      <c r="H65" s="5"/>
+      <c r="I65" s="3">
+        <v>5000</v>
+      </c>
+      <c r="J65" s="5"/>
+      <c r="K65" s="5"/>
+      <c r="L65" s="5"/>
+      <c r="M65" s="3">
+        <v>5645.16</v>
+      </c>
+      <c r="N65" s="5"/>
+      <c r="O65" s="6"/>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>44261</v>
       </c>
@@ -1075,2704 +2494,5085 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C66" s="5"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F66" s="5"/>
+      <c r="G66" s="3">
+        <v>600</v>
+      </c>
+      <c r="H66" s="5"/>
+      <c r="I66" s="5"/>
+      <c r="J66" s="5"/>
+      <c r="K66" s="5"/>
+      <c r="L66" s="5"/>
+      <c r="M66" s="3">
+        <v>600</v>
+      </c>
+      <c r="N66" s="5"/>
+      <c r="O66" s="6"/>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>44262</v>
       </c>
       <c r="B67" s="2">
-        <f t="shared" ref="B67:B130" si="1">WEEKDAY(A67)</f>
+        <f t="shared" ref="B67:B130" si="2">WEEKDAY(A67)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C67" s="5"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F67" s="3">
+        <v>5000</v>
+      </c>
+      <c r="G67" s="3">
+        <v>645</v>
+      </c>
+      <c r="H67" s="5"/>
+      <c r="I67" s="5"/>
+      <c r="J67" s="5"/>
+      <c r="K67" s="5"/>
+      <c r="L67" s="5"/>
+      <c r="M67" s="3">
+        <v>5645</v>
+      </c>
+      <c r="N67" s="5"/>
+      <c r="O67" s="6"/>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>44263</v>
       </c>
       <c r="B68" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C68" s="5"/>
+      <c r="D68" s="5"/>
+      <c r="E68" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F68" s="5"/>
+      <c r="G68" s="3">
+        <v>390</v>
+      </c>
+      <c r="H68" s="5"/>
+      <c r="I68" s="5"/>
+      <c r="J68" s="5"/>
+      <c r="K68" s="5"/>
+      <c r="L68" s="5"/>
+      <c r="M68" s="3">
+        <v>390</v>
+      </c>
+      <c r="N68" s="5"/>
+      <c r="O68" s="6"/>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>44264</v>
       </c>
       <c r="B69" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C69" s="5"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F69" s="5"/>
+      <c r="G69" s="3">
+        <v>200</v>
+      </c>
+      <c r="H69" s="3">
+        <v>40500</v>
+      </c>
+      <c r="I69" s="5"/>
+      <c r="J69" s="5"/>
+      <c r="K69" s="3">
+        <v>5000</v>
+      </c>
+      <c r="L69" s="5"/>
+      <c r="M69" s="3">
+        <v>45700</v>
+      </c>
+      <c r="N69" s="5"/>
+      <c r="O69" s="6"/>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>44265</v>
       </c>
       <c r="B70" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C70" s="5"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F70" s="5"/>
+      <c r="G70" s="3">
+        <v>800</v>
+      </c>
+      <c r="H70" s="5"/>
+      <c r="I70" s="5"/>
+      <c r="J70" s="5"/>
+      <c r="K70" s="5"/>
+      <c r="L70" s="5"/>
+      <c r="M70" s="3">
+        <v>800</v>
+      </c>
+      <c r="N70" s="5"/>
+      <c r="O70" s="6"/>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>44266</v>
       </c>
       <c r="B71" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C71" s="5"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F71" s="5"/>
+      <c r="G71" s="3">
+        <v>600</v>
+      </c>
+      <c r="H71" s="5"/>
+      <c r="I71" s="5"/>
+      <c r="J71" s="5"/>
+      <c r="K71" s="5"/>
+      <c r="L71" s="5"/>
+      <c r="M71" s="3">
+        <v>600</v>
+      </c>
+      <c r="N71" s="5"/>
+      <c r="O71" s="6"/>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>44267</v>
       </c>
       <c r="B72" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C72" s="5"/>
+      <c r="D72" s="3">
+        <v>50000</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F72" s="5"/>
+      <c r="G72" s="3">
+        <v>400</v>
+      </c>
+      <c r="H72" s="5"/>
+      <c r="I72" s="5"/>
+      <c r="J72" s="3">
+        <v>150000</v>
+      </c>
+      <c r="K72" s="5"/>
+      <c r="L72" s="5"/>
+      <c r="M72" s="3">
+        <v>200400</v>
+      </c>
+      <c r="N72" s="5"/>
+      <c r="O72" s="6"/>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>44268</v>
       </c>
       <c r="B73" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C73" s="5"/>
+      <c r="D73" s="5"/>
+      <c r="E73" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F73" s="5"/>
+      <c r="G73" s="3">
+        <v>750</v>
+      </c>
+      <c r="H73" s="5"/>
+      <c r="I73" s="5"/>
+      <c r="J73" s="5"/>
+      <c r="K73" s="5"/>
+      <c r="L73" s="5"/>
+      <c r="M73" s="3">
+        <v>750</v>
+      </c>
+      <c r="N73" s="5"/>
+      <c r="O73" s="6"/>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>44269</v>
       </c>
       <c r="B74" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C74" s="5"/>
+      <c r="D74" s="5"/>
+      <c r="E74" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F74" s="3">
+        <v>5000</v>
+      </c>
+      <c r="G74" s="3">
+        <v>300</v>
+      </c>
+      <c r="H74" s="5"/>
+      <c r="I74" s="5"/>
+      <c r="J74" s="5"/>
+      <c r="K74" s="5"/>
+      <c r="L74" s="5"/>
+      <c r="M74" s="3">
+        <v>5300</v>
+      </c>
+      <c r="N74" s="5"/>
+      <c r="O74" s="6"/>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>44270</v>
       </c>
       <c r="B75" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C75" s="5"/>
+      <c r="D75" s="7"/>
+      <c r="E75" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F75" s="5"/>
+      <c r="G75" s="3">
+        <v>645</v>
+      </c>
+      <c r="H75" s="5"/>
+      <c r="I75" s="3">
+        <v>25000</v>
+      </c>
+      <c r="J75" s="5"/>
+      <c r="K75" s="5"/>
+      <c r="L75" s="5"/>
+      <c r="M75" s="3">
+        <v>25645</v>
+      </c>
+      <c r="N75" s="5"/>
+      <c r="O75" s="6"/>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>44271</v>
       </c>
       <c r="B76" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C76" s="5"/>
+      <c r="D76" s="5"/>
+      <c r="E76" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F76" s="5"/>
+      <c r="G76" s="3">
+        <v>645</v>
+      </c>
+      <c r="H76" s="3">
+        <v>6000</v>
+      </c>
+      <c r="I76" s="5"/>
+      <c r="J76" s="5"/>
+      <c r="K76" s="3">
+        <v>5000</v>
+      </c>
+      <c r="L76" s="5"/>
+      <c r="M76" s="3">
+        <v>11645</v>
+      </c>
+      <c r="N76" s="5"/>
+      <c r="O76" s="6"/>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>44272</v>
       </c>
       <c r="B77" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C77" s="5"/>
+      <c r="D77" s="5"/>
+      <c r="E77" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F77" s="5"/>
+      <c r="G77" s="3">
+        <v>645</v>
+      </c>
+      <c r="H77" s="5"/>
+      <c r="I77" s="5"/>
+      <c r="J77" s="5"/>
+      <c r="K77" s="5"/>
+      <c r="L77" s="5"/>
+      <c r="M77" s="3">
+        <v>645</v>
+      </c>
+      <c r="N77" s="5"/>
+      <c r="O77" s="6"/>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>44273</v>
       </c>
       <c r="B78" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C78" s="5"/>
+      <c r="D78" s="5"/>
+      <c r="E78" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F78" s="5"/>
+      <c r="G78" s="3">
+        <v>645</v>
+      </c>
+      <c r="H78" s="5"/>
+      <c r="I78" s="5"/>
+      <c r="J78" s="5"/>
+      <c r="K78" s="5"/>
+      <c r="L78" s="5"/>
+      <c r="M78" s="3">
+        <v>645</v>
+      </c>
+      <c r="N78" s="5"/>
+      <c r="O78" s="6"/>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>44274</v>
       </c>
       <c r="B79" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C79" s="5"/>
+      <c r="D79" s="5"/>
+      <c r="E79" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F79" s="5"/>
+      <c r="G79" s="3">
+        <v>300</v>
+      </c>
+      <c r="H79" s="5"/>
+      <c r="I79" s="5"/>
+      <c r="J79" s="5"/>
+      <c r="K79" s="5"/>
+      <c r="L79" s="5"/>
+      <c r="M79" s="3">
+        <v>300</v>
+      </c>
+      <c r="N79" s="5"/>
+      <c r="O79" s="6"/>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>44275</v>
       </c>
       <c r="B80" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C80" s="5"/>
+      <c r="D80" s="5"/>
+      <c r="E80" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F80" s="5"/>
+      <c r="G80" s="3">
+        <v>150</v>
+      </c>
+      <c r="H80" s="5"/>
+      <c r="I80" s="5"/>
+      <c r="J80" s="5"/>
+      <c r="K80" s="5"/>
+      <c r="L80" s="5"/>
+      <c r="M80" s="3">
+        <v>150</v>
+      </c>
+      <c r="N80" s="5"/>
+      <c r="O80" s="6"/>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>44276</v>
       </c>
       <c r="B81" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C81" s="5"/>
+      <c r="D81" s="5"/>
+      <c r="E81" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F81" s="3">
+        <v>5000</v>
+      </c>
+      <c r="G81" s="3">
+        <v>645</v>
+      </c>
+      <c r="H81" s="5"/>
+      <c r="I81" s="5"/>
+      <c r="J81" s="5"/>
+      <c r="K81" s="5"/>
+      <c r="L81" s="5"/>
+      <c r="M81" s="3">
+        <v>5645</v>
+      </c>
+      <c r="N81" s="5"/>
+      <c r="O81" s="6"/>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>44277</v>
       </c>
       <c r="B82" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C82" s="5"/>
+      <c r="D82" s="5"/>
+      <c r="E82" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F82" s="5"/>
+      <c r="G82" s="3">
+        <v>645</v>
+      </c>
+      <c r="H82" s="5"/>
+      <c r="I82" s="5"/>
+      <c r="J82" s="5"/>
+      <c r="K82" s="5"/>
+      <c r="L82" s="5"/>
+      <c r="M82" s="3">
+        <v>645</v>
+      </c>
+      <c r="N82" s="5"/>
+      <c r="O82" s="6"/>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>44278</v>
       </c>
       <c r="B83" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C83" s="5"/>
+      <c r="D83" s="6"/>
+      <c r="E83" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F83" s="5"/>
+      <c r="G83" s="3">
+        <v>600</v>
+      </c>
+      <c r="H83" s="3">
+        <v>62500</v>
+      </c>
+      <c r="I83" s="5"/>
+      <c r="J83" s="5"/>
+      <c r="K83" s="3">
+        <v>5000</v>
+      </c>
+      <c r="L83" s="5"/>
+      <c r="M83" s="3">
+        <v>68100</v>
+      </c>
+      <c r="N83" s="5"/>
+      <c r="O83" s="6"/>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>44279</v>
       </c>
       <c r="B84" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C84" s="5"/>
+      <c r="D84" s="5"/>
+      <c r="E84" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F84" s="5"/>
+      <c r="G84" s="3">
+        <v>400</v>
+      </c>
+      <c r="H84" s="5"/>
+      <c r="I84" s="5"/>
+      <c r="J84" s="5"/>
+      <c r="K84" s="5"/>
+      <c r="L84" s="5"/>
+      <c r="M84" s="3">
+        <v>400</v>
+      </c>
+      <c r="N84" s="5"/>
+      <c r="O84" s="6"/>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>44280</v>
       </c>
       <c r="B85" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C85" s="5"/>
+      <c r="D85" s="5"/>
+      <c r="E85" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F85" s="5"/>
+      <c r="G85" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H85" s="5"/>
+      <c r="I85" s="5"/>
+      <c r="J85" s="5"/>
+      <c r="K85" s="5"/>
+      <c r="L85" s="5"/>
+      <c r="M85" s="3">
+        <v>1000</v>
+      </c>
+      <c r="N85" s="5"/>
+      <c r="O85" s="6"/>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>44281</v>
       </c>
       <c r="B86" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C86" s="5"/>
+      <c r="D86" s="3">
+        <v>60000</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F86" s="5"/>
+      <c r="G86" s="3">
+        <v>645</v>
+      </c>
+      <c r="H86" s="5"/>
+      <c r="I86" s="5"/>
+      <c r="J86" s="5"/>
+      <c r="K86" s="5"/>
+      <c r="L86" s="5"/>
+      <c r="M86" s="3">
+        <v>60645</v>
+      </c>
+      <c r="N86" s="5"/>
+      <c r="O86" s="6"/>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>44282</v>
       </c>
       <c r="B87" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C87" s="5"/>
+      <c r="D87" s="5"/>
+      <c r="E87" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F87" s="5"/>
+      <c r="G87" s="3">
+        <v>645</v>
+      </c>
+      <c r="H87" s="5"/>
+      <c r="I87" s="5"/>
+      <c r="J87" s="5"/>
+      <c r="K87" s="5"/>
+      <c r="L87" s="5"/>
+      <c r="M87" s="3">
+        <v>645</v>
+      </c>
+      <c r="N87" s="5"/>
+      <c r="O87" s="6"/>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>44283</v>
       </c>
       <c r="B88" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C88" s="5"/>
+      <c r="D88" s="5"/>
+      <c r="E88" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F88" s="3">
+        <v>5000</v>
+      </c>
+      <c r="G88" s="3">
+        <v>645</v>
+      </c>
+      <c r="H88" s="5"/>
+      <c r="I88" s="5"/>
+      <c r="J88" s="5"/>
+      <c r="K88" s="5"/>
+      <c r="L88" s="5"/>
+      <c r="M88" s="3">
+        <v>5645</v>
+      </c>
+      <c r="N88" s="5"/>
+      <c r="O88" s="7"/>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>44284</v>
       </c>
       <c r="B89" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C89" s="5"/>
+      <c r="D89" s="3"/>
+      <c r="E89" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F89" s="5"/>
+      <c r="G89" s="3">
+        <v>645</v>
+      </c>
+      <c r="H89" s="5"/>
+      <c r="I89" s="5"/>
+      <c r="J89" s="5"/>
+      <c r="K89" s="5"/>
+      <c r="L89" s="5"/>
+      <c r="M89" s="3">
+        <v>645</v>
+      </c>
+      <c r="N89" s="5"/>
+      <c r="O89" s="7"/>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>44285</v>
       </c>
       <c r="B90" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C90" s="5"/>
+      <c r="D90" s="5"/>
+      <c r="E90" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F90" s="5"/>
+      <c r="G90" s="3">
+        <v>645</v>
+      </c>
+      <c r="H90" s="3">
+        <v>62500</v>
+      </c>
+      <c r="I90" s="5"/>
+      <c r="J90" s="5"/>
+      <c r="K90" s="3">
+        <v>5000</v>
+      </c>
+      <c r="L90" s="5"/>
+      <c r="M90" s="3">
+        <v>68145</v>
+      </c>
+      <c r="N90" s="5"/>
+      <c r="O90" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>44286</v>
       </c>
       <c r="B91" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C91" s="9"/>
+      <c r="D91" s="9"/>
+      <c r="E91" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F91" s="9"/>
+      <c r="G91" s="10">
+        <v>645</v>
+      </c>
+      <c r="H91" s="9"/>
+      <c r="I91" s="9"/>
+      <c r="J91" s="9"/>
+      <c r="K91" s="9"/>
+      <c r="L91" s="10"/>
+      <c r="M91" s="10">
+        <v>645</v>
+      </c>
+      <c r="N91" s="9"/>
+      <c r="O91" s="10">
+        <v>518965.16</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>44287</v>
       </c>
       <c r="B92" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C92" s="3"/>
+      <c r="D92" s="7"/>
+      <c r="E92" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F92" s="5"/>
+      <c r="G92" s="3">
+        <v>645</v>
+      </c>
+      <c r="H92" s="5"/>
+      <c r="I92" s="5"/>
+      <c r="J92" s="5"/>
+      <c r="K92" s="5"/>
+      <c r="L92" s="5"/>
+      <c r="M92" s="3">
+        <v>645</v>
+      </c>
+      <c r="N92" s="3">
+        <v>1200000</v>
+      </c>
+      <c r="O92" s="6"/>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>44288</v>
       </c>
       <c r="B93" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C93" s="5"/>
+      <c r="D93" s="5"/>
+      <c r="E93" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F93" s="5"/>
+      <c r="G93" s="3">
+        <v>600</v>
+      </c>
+      <c r="H93" s="5"/>
+      <c r="I93" s="5"/>
+      <c r="J93" s="5"/>
+      <c r="K93" s="5"/>
+      <c r="L93" s="5"/>
+      <c r="M93" s="3">
+        <v>600</v>
+      </c>
+      <c r="N93" s="5"/>
+      <c r="O93" s="6"/>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>44289</v>
       </c>
       <c r="B94" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C94" s="5"/>
+      <c r="D94" s="5"/>
+      <c r="E94" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F94" s="5"/>
+      <c r="G94" s="3">
+        <v>500</v>
+      </c>
+      <c r="H94" s="5"/>
+      <c r="I94" s="6"/>
+      <c r="J94" s="5"/>
+      <c r="K94" s="5"/>
+      <c r="L94" s="5"/>
+      <c r="M94" s="3">
+        <v>500</v>
+      </c>
+      <c r="N94" s="5"/>
+      <c r="O94" s="6"/>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>44290</v>
       </c>
       <c r="B95" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C95" s="5"/>
+      <c r="D95" s="5"/>
+      <c r="E95" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F95" s="5"/>
+      <c r="G95" s="3">
+        <v>200</v>
+      </c>
+      <c r="H95" s="5"/>
+      <c r="I95" s="5"/>
+      <c r="J95" s="5"/>
+      <c r="K95" s="5"/>
+      <c r="L95" s="5"/>
+      <c r="M95" s="3">
+        <v>200</v>
+      </c>
+      <c r="N95" s="5"/>
+      <c r="O95" s="6"/>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>44291</v>
       </c>
       <c r="B96" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C96" s="5"/>
+      <c r="D96" s="5"/>
+      <c r="E96" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F96" s="5"/>
+      <c r="G96" s="3">
+        <v>645.16</v>
+      </c>
+      <c r="H96" s="5"/>
+      <c r="I96" s="3">
+        <v>5000</v>
+      </c>
+      <c r="J96" s="5"/>
+      <c r="K96" s="5"/>
+      <c r="L96" s="5"/>
+      <c r="M96" s="3">
+        <v>5645.16</v>
+      </c>
+      <c r="N96" s="5"/>
+      <c r="O96" s="6"/>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>44292</v>
       </c>
       <c r="B97" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C97" s="5"/>
+      <c r="D97" s="5"/>
+      <c r="E97" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F97" s="5"/>
+      <c r="G97" s="3">
+        <v>600</v>
+      </c>
+      <c r="H97" s="5"/>
+      <c r="I97" s="5"/>
+      <c r="J97" s="5"/>
+      <c r="K97" s="5"/>
+      <c r="L97" s="5"/>
+      <c r="M97" s="3">
+        <v>600</v>
+      </c>
+      <c r="N97" s="5"/>
+      <c r="O97" s="6"/>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>44293</v>
       </c>
       <c r="B98" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C98" s="5"/>
+      <c r="D98" s="5"/>
+      <c r="E98" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F98" s="3">
+        <v>5000</v>
+      </c>
+      <c r="G98" s="3">
+        <v>645</v>
+      </c>
+      <c r="H98" s="5"/>
+      <c r="I98" s="5"/>
+      <c r="J98" s="5"/>
+      <c r="K98" s="5"/>
+      <c r="L98" s="5"/>
+      <c r="M98" s="3">
+        <v>5645</v>
+      </c>
+      <c r="N98" s="5"/>
+      <c r="O98" s="6"/>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>44294</v>
       </c>
       <c r="B99" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C99" s="5"/>
+      <c r="D99" s="5"/>
+      <c r="E99" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F99" s="5"/>
+      <c r="G99" s="3">
+        <v>390</v>
+      </c>
+      <c r="H99" s="5"/>
+      <c r="I99" s="5"/>
+      <c r="J99" s="5"/>
+      <c r="K99" s="5"/>
+      <c r="L99" s="5"/>
+      <c r="M99" s="3">
+        <v>390</v>
+      </c>
+      <c r="N99" s="5"/>
+      <c r="O99" s="6"/>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>44295</v>
       </c>
       <c r="B100" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C100" s="5"/>
+      <c r="D100" s="3">
+        <v>50000</v>
+      </c>
+      <c r="E100" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F100" s="5"/>
+      <c r="G100" s="3">
+        <v>200</v>
+      </c>
+      <c r="H100" s="3">
+        <v>40500</v>
+      </c>
+      <c r="I100" s="5"/>
+      <c r="J100" s="5"/>
+      <c r="K100" s="3">
+        <v>5000</v>
+      </c>
+      <c r="L100" s="5"/>
+      <c r="M100" s="3">
+        <v>95700</v>
+      </c>
+      <c r="N100" s="5"/>
+      <c r="O100" s="6"/>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>44296</v>
       </c>
       <c r="B101" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C101" s="5"/>
+      <c r="D101" s="5"/>
+      <c r="E101" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F101" s="5"/>
+      <c r="G101" s="3">
+        <v>800</v>
+      </c>
+      <c r="H101" s="5"/>
+      <c r="I101" s="5"/>
+      <c r="J101" s="5"/>
+      <c r="K101" s="5"/>
+      <c r="L101" s="5"/>
+      <c r="M101" s="3">
+        <v>800</v>
+      </c>
+      <c r="N101" s="5"/>
+      <c r="O101" s="6"/>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>44297</v>
       </c>
       <c r="B102" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C102" s="5"/>
+      <c r="D102" s="5"/>
+      <c r="E102" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F102" s="5"/>
+      <c r="G102" s="3">
+        <v>600</v>
+      </c>
+      <c r="H102" s="5"/>
+      <c r="I102" s="5"/>
+      <c r="J102" s="5"/>
+      <c r="K102" s="5"/>
+      <c r="L102" s="5"/>
+      <c r="M102" s="3">
+        <v>600</v>
+      </c>
+      <c r="N102" s="5"/>
+      <c r="O102" s="6"/>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>44298</v>
       </c>
       <c r="B103" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C103" s="5"/>
+      <c r="D103" s="5"/>
+      <c r="E103" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F103" s="5"/>
+      <c r="G103" s="3">
+        <v>400</v>
+      </c>
+      <c r="H103" s="5"/>
+      <c r="I103" s="5"/>
+      <c r="J103" s="3">
+        <v>150000</v>
+      </c>
+      <c r="K103" s="5"/>
+      <c r="L103" s="5"/>
+      <c r="M103" s="3">
+        <v>150400</v>
+      </c>
+      <c r="N103" s="5"/>
+      <c r="O103" s="6"/>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>44299</v>
       </c>
       <c r="B104" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C104" s="5"/>
+      <c r="D104" s="5"/>
+      <c r="E104" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F104" s="5"/>
+      <c r="G104" s="3">
+        <v>750</v>
+      </c>
+      <c r="H104" s="5"/>
+      <c r="I104" s="5"/>
+      <c r="J104" s="5"/>
+      <c r="K104" s="5"/>
+      <c r="L104" s="5"/>
+      <c r="M104" s="3">
+        <v>750</v>
+      </c>
+      <c r="N104" s="5"/>
+      <c r="O104" s="6"/>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>44300</v>
       </c>
       <c r="B105" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C105" s="5"/>
+      <c r="D105" s="5"/>
+      <c r="E105" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F105" s="3">
+        <v>5000</v>
+      </c>
+      <c r="G105" s="3">
+        <v>300</v>
+      </c>
+      <c r="H105" s="5"/>
+      <c r="I105" s="5"/>
+      <c r="J105" s="5"/>
+      <c r="K105" s="5"/>
+      <c r="L105" s="5"/>
+      <c r="M105" s="3">
+        <v>5300</v>
+      </c>
+      <c r="N105" s="5"/>
+      <c r="O105" s="6"/>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>44301</v>
       </c>
       <c r="B106" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C106" s="5"/>
+      <c r="D106" s="3"/>
+      <c r="E106" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F106" s="5"/>
+      <c r="G106" s="3">
+        <v>645</v>
+      </c>
+      <c r="H106" s="5"/>
+      <c r="I106" s="3">
+        <v>25000</v>
+      </c>
+      <c r="J106" s="5"/>
+      <c r="K106" s="5"/>
+      <c r="L106" s="5"/>
+      <c r="M106" s="3">
+        <v>25645</v>
+      </c>
+      <c r="N106" s="5"/>
+      <c r="O106" s="6"/>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>44302</v>
       </c>
       <c r="B107" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C107" s="5"/>
+      <c r="D107" s="5"/>
+      <c r="E107" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F107" s="5"/>
+      <c r="G107" s="3">
+        <v>645</v>
+      </c>
+      <c r="H107" s="3">
+        <v>6000</v>
+      </c>
+      <c r="I107" s="5"/>
+      <c r="J107" s="5"/>
+      <c r="K107" s="3">
+        <v>5000</v>
+      </c>
+      <c r="L107" s="5"/>
+      <c r="M107" s="3">
+        <v>11645</v>
+      </c>
+      <c r="N107" s="5"/>
+      <c r="O107" s="6"/>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>44303</v>
       </c>
       <c r="B108" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C108" s="5"/>
+      <c r="D108" s="5"/>
+      <c r="E108" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F108" s="5"/>
+      <c r="G108" s="3">
+        <v>645</v>
+      </c>
+      <c r="H108" s="5"/>
+      <c r="I108" s="5"/>
+      <c r="J108" s="5"/>
+      <c r="K108" s="5"/>
+      <c r="L108" s="5"/>
+      <c r="M108" s="3">
+        <v>645</v>
+      </c>
+      <c r="N108" s="5"/>
+      <c r="O108" s="6"/>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>44304</v>
       </c>
       <c r="B109" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C109" s="5"/>
+      <c r="D109" s="5"/>
+      <c r="E109" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F109" s="5"/>
+      <c r="G109" s="3">
+        <v>645</v>
+      </c>
+      <c r="H109" s="5"/>
+      <c r="I109" s="5"/>
+      <c r="J109" s="5"/>
+      <c r="K109" s="5"/>
+      <c r="L109" s="5"/>
+      <c r="M109" s="3">
+        <v>645</v>
+      </c>
+      <c r="N109" s="5"/>
+      <c r="O109" s="6"/>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>44305</v>
       </c>
       <c r="B110" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C110" s="5"/>
+      <c r="D110" s="5"/>
+      <c r="E110" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F110" s="5"/>
+      <c r="G110" s="3">
+        <v>300</v>
+      </c>
+      <c r="H110" s="5"/>
+      <c r="I110" s="5"/>
+      <c r="J110" s="5"/>
+      <c r="K110" s="5"/>
+      <c r="L110" s="5"/>
+      <c r="M110" s="3">
+        <v>300</v>
+      </c>
+      <c r="N110" s="5"/>
+      <c r="O110" s="6"/>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>44306</v>
       </c>
       <c r="B111" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C111" s="5"/>
+      <c r="D111" s="5"/>
+      <c r="E111" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F111" s="5"/>
+      <c r="G111" s="3">
+        <v>150</v>
+      </c>
+      <c r="H111" s="5"/>
+      <c r="I111" s="5"/>
+      <c r="J111" s="5"/>
+      <c r="K111" s="5"/>
+      <c r="L111" s="5"/>
+      <c r="M111" s="3">
+        <v>150</v>
+      </c>
+      <c r="N111" s="5"/>
+      <c r="O111" s="6"/>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>44307</v>
       </c>
       <c r="B112" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C112" s="5"/>
+      <c r="D112" s="5"/>
+      <c r="E112" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F112" s="3">
+        <v>5000</v>
+      </c>
+      <c r="G112" s="3">
+        <v>645</v>
+      </c>
+      <c r="H112" s="5"/>
+      <c r="I112" s="5"/>
+      <c r="J112" s="5"/>
+      <c r="K112" s="5"/>
+      <c r="L112" s="5"/>
+      <c r="M112" s="3">
+        <v>5645</v>
+      </c>
+      <c r="N112" s="5"/>
+      <c r="O112" s="6"/>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>44308</v>
       </c>
       <c r="B113" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C113" s="5"/>
+      <c r="D113" s="5"/>
+      <c r="E113" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F113" s="5"/>
+      <c r="G113" s="3">
+        <v>645</v>
+      </c>
+      <c r="H113" s="5"/>
+      <c r="I113" s="5"/>
+      <c r="J113" s="5"/>
+      <c r="K113" s="5"/>
+      <c r="L113" s="5"/>
+      <c r="M113" s="3">
+        <v>645</v>
+      </c>
+      <c r="N113" s="5"/>
+      <c r="O113" s="6"/>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>44309</v>
       </c>
       <c r="B114" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C114" s="5"/>
+      <c r="D114" s="3">
+        <v>50000</v>
+      </c>
+      <c r="E114" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F114" s="5"/>
+      <c r="G114" s="3">
+        <v>600</v>
+      </c>
+      <c r="H114" s="3">
+        <v>62500</v>
+      </c>
+      <c r="I114" s="5"/>
+      <c r="J114" s="5"/>
+      <c r="K114" s="3">
+        <v>5000</v>
+      </c>
+      <c r="L114" s="5"/>
+      <c r="M114" s="3">
+        <v>118100</v>
+      </c>
+      <c r="N114" s="5"/>
+      <c r="O114" s="6"/>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>44310</v>
       </c>
       <c r="B115" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C115" s="5"/>
+      <c r="D115" s="5"/>
+      <c r="E115" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F115" s="5"/>
+      <c r="G115" s="3">
+        <v>400</v>
+      </c>
+      <c r="H115" s="5"/>
+      <c r="I115" s="5"/>
+      <c r="J115" s="5"/>
+      <c r="K115" s="5"/>
+      <c r="L115" s="5"/>
+      <c r="M115" s="3">
+        <v>400</v>
+      </c>
+      <c r="N115" s="5"/>
+      <c r="O115" s="7"/>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>44311</v>
       </c>
       <c r="B116" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C116" s="5"/>
+      <c r="D116" s="5"/>
+      <c r="E116" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F116" s="5"/>
+      <c r="G116" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H116" s="5"/>
+      <c r="I116" s="5"/>
+      <c r="J116" s="5"/>
+      <c r="K116" s="5"/>
+      <c r="L116" s="5"/>
+      <c r="M116" s="3">
+        <v>1000</v>
+      </c>
+      <c r="N116" s="5"/>
+      <c r="O116" s="7"/>
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>44312</v>
       </c>
       <c r="B117" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C117" s="5"/>
+      <c r="D117" s="5"/>
+      <c r="E117" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F117" s="5"/>
+      <c r="G117" s="3">
+        <v>645</v>
+      </c>
+      <c r="H117" s="5"/>
+      <c r="I117" s="5"/>
+      <c r="J117" s="5"/>
+      <c r="K117" s="5"/>
+      <c r="L117" s="5"/>
+      <c r="M117" s="3">
+        <v>645</v>
+      </c>
+      <c r="N117" s="5"/>
+      <c r="O117" s="6"/>
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>44313</v>
       </c>
       <c r="B118" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C118" s="5"/>
+      <c r="D118" s="5"/>
+      <c r="E118" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F118" s="5"/>
+      <c r="G118" s="3">
+        <v>645</v>
+      </c>
+      <c r="H118" s="5"/>
+      <c r="I118" s="5"/>
+      <c r="J118" s="5"/>
+      <c r="K118" s="5"/>
+      <c r="L118" s="5"/>
+      <c r="M118" s="3">
+        <v>645</v>
+      </c>
+      <c r="N118" s="5"/>
+      <c r="O118" s="6"/>
+    </row>
+    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>44314</v>
       </c>
       <c r="B119" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C119" s="5"/>
+      <c r="D119" s="5"/>
+      <c r="E119" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F119" s="3">
+        <v>5000</v>
+      </c>
+      <c r="G119" s="3">
+        <v>645</v>
+      </c>
+      <c r="H119" s="5"/>
+      <c r="I119" s="5"/>
+      <c r="J119" s="5"/>
+      <c r="K119" s="5"/>
+      <c r="L119" s="5"/>
+      <c r="M119" s="3">
+        <v>5645</v>
+      </c>
+      <c r="N119" s="5"/>
+      <c r="O119" s="7"/>
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>44315</v>
       </c>
       <c r="B120" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C120" s="5"/>
+      <c r="D120" s="3"/>
+      <c r="E120" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F120" s="5"/>
+      <c r="G120" s="3">
+        <v>645</v>
+      </c>
+      <c r="H120" s="5"/>
+      <c r="I120" s="5"/>
+      <c r="J120" s="5"/>
+      <c r="K120" s="5"/>
+      <c r="L120" s="5"/>
+      <c r="M120" s="3">
+        <v>645</v>
+      </c>
+      <c r="N120" s="5"/>
+      <c r="O120" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>44316</v>
       </c>
       <c r="B121" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C121" s="9"/>
+      <c r="D121" s="9"/>
+      <c r="E121" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F121" s="9"/>
+      <c r="G121" s="10">
+        <v>645</v>
+      </c>
+      <c r="H121" s="10">
+        <v>62500</v>
+      </c>
+      <c r="I121" s="9"/>
+      <c r="J121" s="9"/>
+      <c r="K121" s="10">
+        <v>5000</v>
+      </c>
+      <c r="L121" s="10"/>
+      <c r="M121" s="10">
+        <v>68145</v>
+      </c>
+      <c r="N121" s="9"/>
+      <c r="O121" s="10">
+        <v>508965.16</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>44317</v>
       </c>
       <c r="B122" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C122" s="3"/>
+      <c r="D122" s="7"/>
+      <c r="E122" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F122" s="5"/>
+      <c r="G122" s="3">
+        <v>645</v>
+      </c>
+      <c r="H122" s="5"/>
+      <c r="I122" s="5"/>
+      <c r="J122" s="5"/>
+      <c r="K122" s="5"/>
+      <c r="L122" s="5"/>
+      <c r="M122" s="3">
+        <v>645</v>
+      </c>
+      <c r="N122" s="3">
+        <v>1200000</v>
+      </c>
+      <c r="O122" s="6"/>
+    </row>
+    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>44318</v>
       </c>
       <c r="B123" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C123" s="5"/>
+      <c r="D123" s="5"/>
+      <c r="E123" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F123" s="5"/>
+      <c r="G123" s="3">
+        <v>600</v>
+      </c>
+      <c r="H123" s="5"/>
+      <c r="I123" s="5"/>
+      <c r="J123" s="5"/>
+      <c r="K123" s="5"/>
+      <c r="L123" s="5"/>
+      <c r="M123" s="3">
+        <v>600</v>
+      </c>
+      <c r="N123" s="5"/>
+      <c r="O123" s="6"/>
+    </row>
+    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>44319</v>
       </c>
       <c r="B124" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C124" s="5"/>
+      <c r="D124" s="5"/>
+      <c r="E124" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F124" s="5"/>
+      <c r="G124" s="3">
+        <v>500</v>
+      </c>
+      <c r="H124" s="5"/>
+      <c r="I124" s="6"/>
+      <c r="J124" s="5"/>
+      <c r="K124" s="5"/>
+      <c r="L124" s="5"/>
+      <c r="M124" s="3">
+        <v>500</v>
+      </c>
+      <c r="N124" s="5"/>
+      <c r="O124" s="6"/>
+    </row>
+    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>44320</v>
       </c>
       <c r="B125" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C125" s="5"/>
+      <c r="D125" s="5"/>
+      <c r="E125" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F125" s="5"/>
+      <c r="G125" s="3">
+        <v>200</v>
+      </c>
+      <c r="H125" s="5"/>
+      <c r="I125" s="5"/>
+      <c r="J125" s="5"/>
+      <c r="K125" s="5"/>
+      <c r="L125" s="5"/>
+      <c r="M125" s="3">
+        <v>200</v>
+      </c>
+      <c r="N125" s="5"/>
+      <c r="O125" s="6"/>
+    </row>
+    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>44321</v>
       </c>
       <c r="B126" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C126" s="5"/>
+      <c r="D126" s="5"/>
+      <c r="E126" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F126" s="5"/>
+      <c r="G126" s="3">
+        <v>645.16</v>
+      </c>
+      <c r="H126" s="5"/>
+      <c r="I126" s="3">
+        <v>5000</v>
+      </c>
+      <c r="J126" s="5"/>
+      <c r="K126" s="5"/>
+      <c r="L126" s="5"/>
+      <c r="M126" s="3">
+        <v>5645.16</v>
+      </c>
+      <c r="N126" s="5"/>
+      <c r="O126" s="6"/>
+    </row>
+    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>44322</v>
       </c>
       <c r="B127" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C127" s="5"/>
+      <c r="D127" s="5"/>
+      <c r="E127" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F127" s="5"/>
+      <c r="G127" s="3">
+        <v>600</v>
+      </c>
+      <c r="H127" s="5"/>
+      <c r="I127" s="5"/>
+      <c r="J127" s="5"/>
+      <c r="K127" s="5"/>
+      <c r="L127" s="5"/>
+      <c r="M127" s="3">
+        <v>600</v>
+      </c>
+      <c r="N127" s="5"/>
+      <c r="O127" s="6"/>
+    </row>
+    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>44323</v>
       </c>
       <c r="B128" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C128" s="5"/>
+      <c r="D128" s="3">
+        <v>60000</v>
+      </c>
+      <c r="E128" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F128" s="3">
+        <v>5000</v>
+      </c>
+      <c r="G128" s="3">
+        <v>645</v>
+      </c>
+      <c r="H128" s="5"/>
+      <c r="I128" s="5"/>
+      <c r="J128" s="5"/>
+      <c r="K128" s="5"/>
+      <c r="L128" s="5"/>
+      <c r="M128" s="3">
+        <v>65645</v>
+      </c>
+      <c r="N128" s="5"/>
+      <c r="O128" s="6"/>
+    </row>
+    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>44324</v>
       </c>
       <c r="B129" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C129" s="5"/>
+      <c r="D129" s="5"/>
+      <c r="E129" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F129" s="5"/>
+      <c r="G129" s="3">
+        <v>390</v>
+      </c>
+      <c r="H129" s="5"/>
+      <c r="I129" s="5"/>
+      <c r="J129" s="5"/>
+      <c r="K129" s="5"/>
+      <c r="L129" s="5"/>
+      <c r="M129" s="3">
+        <v>390</v>
+      </c>
+      <c r="N129" s="5"/>
+      <c r="O129" s="6"/>
+    </row>
+    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>44325</v>
       </c>
       <c r="B130" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C130" s="5"/>
+      <c r="D130" s="6"/>
+      <c r="E130" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F130" s="5"/>
+      <c r="G130" s="3">
+        <v>200</v>
+      </c>
+      <c r="H130" s="3">
+        <v>40500</v>
+      </c>
+      <c r="I130" s="5"/>
+      <c r="J130" s="5"/>
+      <c r="K130" s="3">
+        <v>5000</v>
+      </c>
+      <c r="L130" s="5"/>
+      <c r="M130" s="3">
+        <v>45700</v>
+      </c>
+      <c r="N130" s="5"/>
+      <c r="O130" s="6"/>
+    </row>
+    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>44326</v>
       </c>
       <c r="B131" s="2">
-        <f t="shared" ref="B131:B194" si="2">WEEKDAY(A131)</f>
+        <f t="shared" ref="B131:B194" si="3">WEEKDAY(A131)</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C131" s="5"/>
+      <c r="D131" s="5"/>
+      <c r="E131" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F131" s="5"/>
+      <c r="G131" s="3">
+        <v>800</v>
+      </c>
+      <c r="H131" s="5"/>
+      <c r="I131" s="5"/>
+      <c r="J131" s="5"/>
+      <c r="K131" s="5"/>
+      <c r="L131" s="5"/>
+      <c r="M131" s="3">
+        <v>800</v>
+      </c>
+      <c r="N131" s="5"/>
+      <c r="O131" s="6"/>
+    </row>
+    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>44327</v>
       </c>
       <c r="B132" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C132" s="5"/>
+      <c r="D132" s="5"/>
+      <c r="E132" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F132" s="5"/>
+      <c r="G132" s="3">
+        <v>600</v>
+      </c>
+      <c r="H132" s="5"/>
+      <c r="I132" s="5"/>
+      <c r="J132" s="5"/>
+      <c r="K132" s="5"/>
+      <c r="L132" s="5"/>
+      <c r="M132" s="3">
+        <v>600</v>
+      </c>
+      <c r="N132" s="5"/>
+      <c r="O132" s="6"/>
+    </row>
+    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>44328</v>
       </c>
       <c r="B133" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C133" s="5"/>
+      <c r="D133" s="5"/>
+      <c r="E133" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F133" s="5"/>
+      <c r="G133" s="3">
+        <v>400</v>
+      </c>
+      <c r="H133" s="5"/>
+      <c r="I133" s="5"/>
+      <c r="J133" s="3">
+        <v>150000</v>
+      </c>
+      <c r="K133" s="5"/>
+      <c r="L133" s="5"/>
+      <c r="M133" s="3">
+        <v>150400</v>
+      </c>
+      <c r="N133" s="5"/>
+      <c r="O133" s="6"/>
+    </row>
+    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>44329</v>
       </c>
       <c r="B134" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C134" s="5"/>
+      <c r="D134" s="5"/>
+      <c r="E134" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F134" s="5"/>
+      <c r="G134" s="3">
+        <v>750</v>
+      </c>
+      <c r="H134" s="5"/>
+      <c r="I134" s="5"/>
+      <c r="J134" s="5"/>
+      <c r="K134" s="5"/>
+      <c r="L134" s="5"/>
+      <c r="M134" s="3">
+        <v>750</v>
+      </c>
+      <c r="N134" s="5"/>
+      <c r="O134" s="6"/>
+    </row>
+    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>44330</v>
       </c>
       <c r="B135" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C135" s="5"/>
+      <c r="D135" s="5"/>
+      <c r="E135" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F135" s="3">
+        <v>5000</v>
+      </c>
+      <c r="G135" s="3">
+        <v>300</v>
+      </c>
+      <c r="H135" s="5"/>
+      <c r="I135" s="5"/>
+      <c r="J135" s="5"/>
+      <c r="K135" s="5"/>
+      <c r="L135" s="5"/>
+      <c r="M135" s="3">
+        <v>5300</v>
+      </c>
+      <c r="N135" s="5"/>
+      <c r="O135" s="6"/>
+    </row>
+    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>44331</v>
       </c>
       <c r="B136" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C136" s="5"/>
+      <c r="D136" s="3"/>
+      <c r="E136" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F136" s="5"/>
+      <c r="G136" s="3">
+        <v>645</v>
+      </c>
+      <c r="H136" s="5"/>
+      <c r="I136" s="3">
+        <v>30000</v>
+      </c>
+      <c r="J136" s="5"/>
+      <c r="K136" s="5"/>
+      <c r="L136" s="5"/>
+      <c r="M136" s="3">
+        <v>30645</v>
+      </c>
+      <c r="N136" s="5"/>
+      <c r="O136" s="6"/>
+    </row>
+    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>44332</v>
       </c>
       <c r="B137" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C137" s="5"/>
+      <c r="D137" s="5"/>
+      <c r="E137" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F137" s="5"/>
+      <c r="G137" s="3">
+        <v>645</v>
+      </c>
+      <c r="H137" s="3">
+        <v>40500</v>
+      </c>
+      <c r="I137" s="5"/>
+      <c r="J137" s="5"/>
+      <c r="K137" s="3">
+        <v>5000</v>
+      </c>
+      <c r="L137" s="5"/>
+      <c r="M137" s="3">
+        <v>46145</v>
+      </c>
+      <c r="N137" s="5"/>
+      <c r="O137" s="6"/>
+    </row>
+    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>44333</v>
       </c>
       <c r="B138" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C138" s="5"/>
+      <c r="D138" s="5"/>
+      <c r="E138" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F138" s="5"/>
+      <c r="G138" s="3">
+        <v>645</v>
+      </c>
+      <c r="H138" s="5"/>
+      <c r="I138" s="5"/>
+      <c r="J138" s="5"/>
+      <c r="K138" s="5"/>
+      <c r="L138" s="5"/>
+      <c r="M138" s="3">
+        <v>645</v>
+      </c>
+      <c r="N138" s="5"/>
+      <c r="O138" s="6"/>
+    </row>
+    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>44334</v>
       </c>
       <c r="B139" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C139" s="5"/>
+      <c r="D139" s="5"/>
+      <c r="E139" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F139" s="5"/>
+      <c r="G139" s="3">
+        <v>645</v>
+      </c>
+      <c r="H139" s="5"/>
+      <c r="I139" s="5"/>
+      <c r="J139" s="5"/>
+      <c r="K139" s="5"/>
+      <c r="L139" s="5"/>
+      <c r="M139" s="3">
+        <v>645</v>
+      </c>
+      <c r="N139" s="5"/>
+      <c r="O139" s="6"/>
+    </row>
+    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>44335</v>
       </c>
       <c r="B140" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C140" s="5"/>
+      <c r="D140" s="5"/>
+      <c r="E140" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F140" s="5"/>
+      <c r="G140" s="3">
+        <v>300</v>
+      </c>
+      <c r="H140" s="5"/>
+      <c r="I140" s="5"/>
+      <c r="J140" s="5"/>
+      <c r="K140" s="5"/>
+      <c r="L140" s="5"/>
+      <c r="M140" s="3">
+        <v>300</v>
+      </c>
+      <c r="N140" s="5"/>
+      <c r="O140" s="6"/>
+    </row>
+    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>44336</v>
       </c>
       <c r="B141" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C141" s="5"/>
+      <c r="D141" s="5"/>
+      <c r="E141" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F141" s="5"/>
+      <c r="G141" s="3">
+        <v>150</v>
+      </c>
+      <c r="H141" s="5"/>
+      <c r="I141" s="5"/>
+      <c r="J141" s="5"/>
+      <c r="K141" s="5"/>
+      <c r="L141" s="5"/>
+      <c r="M141" s="3">
+        <v>150</v>
+      </c>
+      <c r="N141" s="5"/>
+      <c r="O141" s="6"/>
+    </row>
+    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>44337</v>
       </c>
       <c r="B142" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C142" s="5"/>
+      <c r="D142" s="3">
+        <v>60000</v>
+      </c>
+      <c r="E142" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F142" s="3">
+        <v>5000</v>
+      </c>
+      <c r="G142" s="3">
+        <v>645</v>
+      </c>
+      <c r="H142" s="5"/>
+      <c r="I142" s="5"/>
+      <c r="J142" s="5"/>
+      <c r="K142" s="5"/>
+      <c r="L142" s="5"/>
+      <c r="M142" s="3">
+        <v>65645</v>
+      </c>
+      <c r="N142" s="5"/>
+      <c r="O142" s="6"/>
+    </row>
+    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>44338</v>
       </c>
       <c r="B143" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C143" s="5"/>
+      <c r="D143" s="5"/>
+      <c r="E143" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F143" s="5"/>
+      <c r="G143" s="3">
+        <v>645</v>
+      </c>
+      <c r="H143" s="5"/>
+      <c r="I143" s="5"/>
+      <c r="J143" s="5"/>
+      <c r="K143" s="5"/>
+      <c r="L143" s="5"/>
+      <c r="M143" s="3">
+        <v>645</v>
+      </c>
+      <c r="N143" s="5"/>
+      <c r="O143" s="6"/>
+    </row>
+    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>44339</v>
       </c>
       <c r="B144" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C144" s="5"/>
+      <c r="D144" s="6"/>
+      <c r="E144" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F144" s="5"/>
+      <c r="G144" s="3">
+        <v>600</v>
+      </c>
+      <c r="H144" s="3">
+        <v>62500</v>
+      </c>
+      <c r="I144" s="5"/>
+      <c r="J144" s="5"/>
+      <c r="K144" s="3">
+        <v>5000</v>
+      </c>
+      <c r="L144" s="5"/>
+      <c r="M144" s="3">
+        <v>68100</v>
+      </c>
+      <c r="N144" s="5"/>
+      <c r="O144" s="6"/>
+    </row>
+    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>44340</v>
       </c>
       <c r="B145" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C145" s="5"/>
+      <c r="D145" s="5"/>
+      <c r="E145" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F145" s="5"/>
+      <c r="G145" s="3">
+        <v>400</v>
+      </c>
+      <c r="H145" s="5"/>
+      <c r="I145" s="5"/>
+      <c r="J145" s="5"/>
+      <c r="K145" s="5"/>
+      <c r="L145" s="5"/>
+      <c r="M145" s="3">
+        <v>400</v>
+      </c>
+      <c r="N145" s="5"/>
+      <c r="O145" s="6"/>
+    </row>
+    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>44341</v>
       </c>
       <c r="B146" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C146" s="5"/>
+      <c r="D146" s="5"/>
+      <c r="E146" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F146" s="5"/>
+      <c r="G146" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H146" s="5"/>
+      <c r="I146" s="5"/>
+      <c r="J146" s="5"/>
+      <c r="K146" s="5"/>
+      <c r="L146" s="5"/>
+      <c r="M146" s="3">
+        <v>1000</v>
+      </c>
+      <c r="N146" s="5"/>
+      <c r="O146" s="6"/>
+    </row>
+    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>44342</v>
       </c>
       <c r="B147" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C147" s="5"/>
+      <c r="D147" s="5"/>
+      <c r="E147" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F147" s="5"/>
+      <c r="G147" s="3">
+        <v>645</v>
+      </c>
+      <c r="H147" s="5"/>
+      <c r="I147" s="5"/>
+      <c r="J147" s="5"/>
+      <c r="K147" s="5"/>
+      <c r="L147" s="5"/>
+      <c r="M147" s="3">
+        <v>645</v>
+      </c>
+      <c r="N147" s="5"/>
+      <c r="O147" s="6"/>
+    </row>
+    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>44343</v>
       </c>
       <c r="B148" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C148" s="5"/>
+      <c r="D148" s="5"/>
+      <c r="E148" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F148" s="5"/>
+      <c r="G148" s="3">
+        <v>645</v>
+      </c>
+      <c r="H148" s="5"/>
+      <c r="I148" s="5"/>
+      <c r="J148" s="5"/>
+      <c r="K148" s="5"/>
+      <c r="L148" s="5"/>
+      <c r="M148" s="3">
+        <v>645</v>
+      </c>
+      <c r="N148" s="5"/>
+      <c r="O148" s="6"/>
+    </row>
+    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>44344</v>
       </c>
       <c r="B149" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C149" s="5"/>
+      <c r="D149" s="5"/>
+      <c r="E149" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F149" s="3">
+        <v>5000</v>
+      </c>
+      <c r="G149" s="3">
+        <v>645</v>
+      </c>
+      <c r="H149" s="5"/>
+      <c r="I149" s="5"/>
+      <c r="J149" s="5"/>
+      <c r="K149" s="5"/>
+      <c r="L149" s="5"/>
+      <c r="M149" s="3">
+        <v>5645</v>
+      </c>
+      <c r="N149" s="5"/>
+      <c r="O149" s="7"/>
+    </row>
+    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>44345</v>
       </c>
       <c r="B150" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C150" s="5"/>
+      <c r="D150" s="3"/>
+      <c r="E150" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F150" s="5"/>
+      <c r="G150" s="3">
+        <v>645</v>
+      </c>
+      <c r="H150" s="5"/>
+      <c r="I150" s="5"/>
+      <c r="J150" s="5"/>
+      <c r="K150" s="5"/>
+      <c r="L150" s="5"/>
+      <c r="M150" s="3">
+        <v>645</v>
+      </c>
+      <c r="N150" s="5"/>
+      <c r="O150" s="7"/>
+    </row>
+    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>44346</v>
       </c>
       <c r="B151" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C151" s="5"/>
+      <c r="D151" s="5"/>
+      <c r="E151" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F151" s="5"/>
+      <c r="G151" s="3">
+        <v>645</v>
+      </c>
+      <c r="H151" s="3">
+        <v>62500</v>
+      </c>
+      <c r="I151" s="5"/>
+      <c r="J151" s="5"/>
+      <c r="K151" s="3">
+        <v>5000</v>
+      </c>
+      <c r="L151" s="5"/>
+      <c r="M151" s="3">
+        <v>68145</v>
+      </c>
+      <c r="N151" s="5"/>
+      <c r="O151" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>44347</v>
       </c>
       <c r="B152" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C152" s="9"/>
+      <c r="D152" s="9"/>
+      <c r="E152" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F152" s="9"/>
+      <c r="G152" s="10">
+        <v>645</v>
+      </c>
+      <c r="H152" s="9"/>
+      <c r="I152" s="9"/>
+      <c r="J152" s="9"/>
+      <c r="K152" s="9"/>
+      <c r="L152" s="10"/>
+      <c r="M152" s="10">
+        <v>645</v>
+      </c>
+      <c r="N152" s="9"/>
+      <c r="O152" s="10">
+        <v>568465.16</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>44348</v>
       </c>
       <c r="B153" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C153" s="3">
+        <v>150000</v>
+      </c>
+      <c r="D153" s="7"/>
+      <c r="E153" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F153" s="5"/>
+      <c r="G153" s="3">
+        <v>645</v>
+      </c>
+      <c r="H153" s="5"/>
+      <c r="I153" s="5"/>
+      <c r="J153" s="5"/>
+      <c r="K153" s="5"/>
+      <c r="L153" s="5"/>
+      <c r="M153" s="3">
+        <v>150645</v>
+      </c>
+      <c r="N153" s="3">
+        <v>1200000</v>
+      </c>
+      <c r="O153" s="6"/>
+    </row>
+    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>44349</v>
       </c>
       <c r="B154" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C154" s="5"/>
+      <c r="D154" s="5"/>
+      <c r="E154" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F154" s="5"/>
+      <c r="G154" s="3">
+        <v>600</v>
+      </c>
+      <c r="H154" s="5"/>
+      <c r="I154" s="5"/>
+      <c r="J154" s="5"/>
+      <c r="K154" s="5"/>
+      <c r="L154" s="5"/>
+      <c r="M154" s="3">
+        <v>600</v>
+      </c>
+      <c r="N154" s="5"/>
+      <c r="O154" s="6"/>
+    </row>
+    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>44350</v>
       </c>
       <c r="B155" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C155" s="5"/>
+      <c r="D155" s="5"/>
+      <c r="E155" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F155" s="5"/>
+      <c r="G155" s="3">
+        <v>500</v>
+      </c>
+      <c r="H155" s="5"/>
+      <c r="I155" s="6"/>
+      <c r="J155" s="5"/>
+      <c r="K155" s="5"/>
+      <c r="L155" s="5"/>
+      <c r="M155" s="3">
+        <v>500</v>
+      </c>
+      <c r="N155" s="5"/>
+      <c r="O155" s="6"/>
+    </row>
+    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>44351</v>
       </c>
       <c r="B156" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C156" s="5"/>
+      <c r="D156" s="3">
+        <v>50000</v>
+      </c>
+      <c r="E156" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F156" s="5"/>
+      <c r="G156" s="3">
+        <v>200</v>
+      </c>
+      <c r="H156" s="5"/>
+      <c r="I156" s="5"/>
+      <c r="J156" s="5"/>
+      <c r="K156" s="5"/>
+      <c r="L156" s="5"/>
+      <c r="M156" s="3">
+        <v>50200</v>
+      </c>
+      <c r="N156" s="5"/>
+      <c r="O156" s="6"/>
+    </row>
+    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>44352</v>
       </c>
       <c r="B157" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C157" s="5"/>
+      <c r="D157" s="5"/>
+      <c r="E157" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F157" s="5"/>
+      <c r="G157" s="3">
+        <v>645.16</v>
+      </c>
+      <c r="H157" s="5"/>
+      <c r="I157" s="3">
+        <v>5000</v>
+      </c>
+      <c r="J157" s="5"/>
+      <c r="K157" s="5"/>
+      <c r="L157" s="5"/>
+      <c r="M157" s="3">
+        <v>5645.16</v>
+      </c>
+      <c r="N157" s="5"/>
+      <c r="O157" s="6"/>
+    </row>
+    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>44353</v>
       </c>
       <c r="B158" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C158" s="5"/>
+      <c r="D158" s="5"/>
+      <c r="E158" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F158" s="5"/>
+      <c r="G158" s="3">
+        <v>600</v>
+      </c>
+      <c r="H158" s="5"/>
+      <c r="I158" s="5"/>
+      <c r="J158" s="5"/>
+      <c r="K158" s="5"/>
+      <c r="L158" s="5"/>
+      <c r="M158" s="3">
+        <v>600</v>
+      </c>
+      <c r="N158" s="5"/>
+      <c r="O158" s="6"/>
+    </row>
+    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>44354</v>
       </c>
       <c r="B159" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C159" s="5"/>
+      <c r="D159" s="5"/>
+      <c r="E159" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F159" s="3">
+        <v>5000</v>
+      </c>
+      <c r="G159" s="3">
+        <v>645</v>
+      </c>
+      <c r="H159" s="5"/>
+      <c r="I159" s="5"/>
+      <c r="J159" s="5"/>
+      <c r="K159" s="5"/>
+      <c r="L159" s="5"/>
+      <c r="M159" s="3">
+        <v>5645</v>
+      </c>
+      <c r="N159" s="5"/>
+      <c r="O159" s="6"/>
+    </row>
+    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>44355</v>
       </c>
       <c r="B160" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C160" s="5"/>
+      <c r="D160" s="5"/>
+      <c r="E160" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F160" s="5"/>
+      <c r="G160" s="3">
+        <v>390</v>
+      </c>
+      <c r="H160" s="5"/>
+      <c r="I160" s="5"/>
+      <c r="J160" s="5"/>
+      <c r="K160" s="5"/>
+      <c r="L160" s="5"/>
+      <c r="M160" s="3">
+        <v>390</v>
+      </c>
+      <c r="N160" s="5"/>
+      <c r="O160" s="6"/>
+    </row>
+    <row r="161" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>44356</v>
       </c>
       <c r="B161" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C161" s="5"/>
+      <c r="D161" s="6"/>
+      <c r="E161" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F161" s="5"/>
+      <c r="G161" s="3">
+        <v>200</v>
+      </c>
+      <c r="H161" s="3">
+        <v>40500</v>
+      </c>
+      <c r="I161" s="5"/>
+      <c r="J161" s="5"/>
+      <c r="K161" s="3">
+        <v>5000</v>
+      </c>
+      <c r="L161" s="5"/>
+      <c r="M161" s="3">
+        <v>45700</v>
+      </c>
+      <c r="N161" s="5"/>
+      <c r="O161" s="6"/>
+    </row>
+    <row r="162" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>44357</v>
       </c>
       <c r="B162" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C162" s="5"/>
+      <c r="D162" s="5"/>
+      <c r="E162" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F162" s="5"/>
+      <c r="G162" s="3">
+        <v>800</v>
+      </c>
+      <c r="H162" s="5"/>
+      <c r="I162" s="5"/>
+      <c r="J162" s="5"/>
+      <c r="K162" s="5"/>
+      <c r="L162" s="5"/>
+      <c r="M162" s="3">
+        <v>800</v>
+      </c>
+      <c r="N162" s="5"/>
+      <c r="O162" s="6"/>
+    </row>
+    <row r="163" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>44358</v>
       </c>
       <c r="B163" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C163" s="5"/>
+      <c r="D163" s="5"/>
+      <c r="E163" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F163" s="5"/>
+      <c r="G163" s="3">
+        <v>600</v>
+      </c>
+      <c r="H163" s="5"/>
+      <c r="I163" s="5"/>
+      <c r="J163" s="5"/>
+      <c r="K163" s="5"/>
+      <c r="L163" s="5"/>
+      <c r="M163" s="3">
+        <v>600</v>
+      </c>
+      <c r="N163" s="5"/>
+      <c r="O163" s="6"/>
+    </row>
+    <row r="164" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>44359</v>
       </c>
       <c r="B164" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C164" s="5"/>
+      <c r="D164" s="5"/>
+      <c r="E164" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F164" s="5"/>
+      <c r="G164" s="3">
+        <v>400</v>
+      </c>
+      <c r="H164" s="5"/>
+      <c r="I164" s="5"/>
+      <c r="J164" s="3">
+        <v>150000</v>
+      </c>
+      <c r="K164" s="5"/>
+      <c r="L164" s="5"/>
+      <c r="M164" s="3">
+        <v>150400</v>
+      </c>
+      <c r="N164" s="5"/>
+      <c r="O164" s="6"/>
+    </row>
+    <row r="165" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>44360</v>
       </c>
       <c r="B165" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C165" s="5"/>
+      <c r="D165" s="5"/>
+      <c r="E165" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F165" s="5"/>
+      <c r="G165" s="3">
+        <v>750</v>
+      </c>
+      <c r="H165" s="5"/>
+      <c r="I165" s="5"/>
+      <c r="J165" s="5"/>
+      <c r="K165" s="5"/>
+      <c r="L165" s="5"/>
+      <c r="M165" s="3">
+        <v>750</v>
+      </c>
+      <c r="N165" s="5"/>
+      <c r="O165" s="6"/>
+    </row>
+    <row r="166" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>44361</v>
       </c>
       <c r="B166" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C166" s="5"/>
+      <c r="D166" s="5"/>
+      <c r="E166" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F166" s="3">
+        <v>5000</v>
+      </c>
+      <c r="G166" s="3">
+        <v>300</v>
+      </c>
+      <c r="H166" s="5"/>
+      <c r="I166" s="5"/>
+      <c r="J166" s="5"/>
+      <c r="K166" s="5"/>
+      <c r="L166" s="5"/>
+      <c r="M166" s="3">
+        <v>5300</v>
+      </c>
+      <c r="N166" s="5"/>
+      <c r="O166" s="6"/>
+    </row>
+    <row r="167" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>44362</v>
       </c>
       <c r="B167" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C167" s="5"/>
+      <c r="D167" s="3"/>
+      <c r="E167" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F167" s="5"/>
+      <c r="G167" s="3">
+        <v>645</v>
+      </c>
+      <c r="H167" s="5"/>
+      <c r="I167" s="3">
+        <v>25000</v>
+      </c>
+      <c r="J167" s="5"/>
+      <c r="K167" s="5"/>
+      <c r="L167" s="5"/>
+      <c r="M167" s="3">
+        <v>25645</v>
+      </c>
+      <c r="N167" s="5"/>
+      <c r="O167" s="6"/>
+    </row>
+    <row r="168" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>44363</v>
       </c>
       <c r="B168" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C168" s="5"/>
+      <c r="D168" s="5"/>
+      <c r="E168" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F168" s="5"/>
+      <c r="G168" s="3">
+        <v>645</v>
+      </c>
+      <c r="H168" s="3">
+        <v>6000</v>
+      </c>
+      <c r="I168" s="5"/>
+      <c r="J168" s="5"/>
+      <c r="K168" s="3">
+        <v>5000</v>
+      </c>
+      <c r="L168" s="5"/>
+      <c r="M168" s="3">
+        <v>11645</v>
+      </c>
+      <c r="N168" s="5"/>
+      <c r="O168" s="6"/>
+    </row>
+    <row r="169" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>44364</v>
       </c>
       <c r="B169" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C169" s="5"/>
+      <c r="D169" s="5"/>
+      <c r="E169" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F169" s="5"/>
+      <c r="G169" s="3">
+        <v>645</v>
+      </c>
+      <c r="H169" s="5"/>
+      <c r="I169" s="5"/>
+      <c r="J169" s="5"/>
+      <c r="K169" s="5"/>
+      <c r="L169" s="5"/>
+      <c r="M169" s="3">
+        <v>645</v>
+      </c>
+      <c r="N169" s="5"/>
+      <c r="O169" s="6"/>
+    </row>
+    <row r="170" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>44365</v>
       </c>
       <c r="B170" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C170" s="5"/>
+      <c r="D170" s="3">
+        <v>50000</v>
+      </c>
+      <c r="E170" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F170" s="5"/>
+      <c r="G170" s="3">
+        <v>645</v>
+      </c>
+      <c r="H170" s="5"/>
+      <c r="I170" s="5"/>
+      <c r="J170" s="5"/>
+      <c r="K170" s="5"/>
+      <c r="L170" s="5"/>
+      <c r="M170" s="3">
+        <v>50645</v>
+      </c>
+      <c r="N170" s="5"/>
+      <c r="O170" s="6"/>
+    </row>
+    <row r="171" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>44366</v>
       </c>
       <c r="B171" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C171" s="5"/>
+      <c r="D171" s="5"/>
+      <c r="E171" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F171" s="5"/>
+      <c r="G171" s="3">
+        <v>300</v>
+      </c>
+      <c r="H171" s="5"/>
+      <c r="I171" s="5"/>
+      <c r="J171" s="5"/>
+      <c r="K171" s="5"/>
+      <c r="L171" s="5"/>
+      <c r="M171" s="3">
+        <v>300</v>
+      </c>
+      <c r="N171" s="5"/>
+      <c r="O171" s="6"/>
+    </row>
+    <row r="172" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>44367</v>
       </c>
       <c r="B172" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C172" s="5"/>
+      <c r="D172" s="5"/>
+      <c r="E172" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F172" s="5"/>
+      <c r="G172" s="3">
+        <v>150</v>
+      </c>
+      <c r="H172" s="5"/>
+      <c r="I172" s="5"/>
+      <c r="J172" s="5"/>
+      <c r="K172" s="5"/>
+      <c r="L172" s="5"/>
+      <c r="M172" s="3">
+        <v>150</v>
+      </c>
+      <c r="N172" s="5"/>
+      <c r="O172" s="6"/>
+    </row>
+    <row r="173" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>44368</v>
       </c>
       <c r="B173" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C173" s="5"/>
+      <c r="D173" s="5"/>
+      <c r="E173" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F173" s="3">
+        <v>5000</v>
+      </c>
+      <c r="G173" s="3">
+        <v>645</v>
+      </c>
+      <c r="H173" s="5"/>
+      <c r="I173" s="5"/>
+      <c r="J173" s="5"/>
+      <c r="K173" s="5"/>
+      <c r="L173" s="5"/>
+      <c r="M173" s="3">
+        <v>5645</v>
+      </c>
+      <c r="N173" s="5"/>
+      <c r="O173" s="6"/>
+    </row>
+    <row r="174" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>44369</v>
       </c>
       <c r="B174" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C174" s="5"/>
+      <c r="D174" s="5"/>
+      <c r="E174" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F174" s="5"/>
+      <c r="G174" s="3">
+        <v>645</v>
+      </c>
+      <c r="H174" s="5"/>
+      <c r="I174" s="5"/>
+      <c r="J174" s="5"/>
+      <c r="K174" s="5"/>
+      <c r="L174" s="5"/>
+      <c r="M174" s="3">
+        <v>645</v>
+      </c>
+      <c r="N174" s="5"/>
+      <c r="O174" s="6"/>
+    </row>
+    <row r="175" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>44370</v>
       </c>
       <c r="B175" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C175" s="5"/>
+      <c r="D175" s="6"/>
+      <c r="E175" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F175" s="5"/>
+      <c r="G175" s="3">
+        <v>600</v>
+      </c>
+      <c r="H175" s="3">
+        <v>62500</v>
+      </c>
+      <c r="I175" s="5"/>
+      <c r="J175" s="5"/>
+      <c r="K175" s="3">
+        <v>5000</v>
+      </c>
+      <c r="L175" s="5"/>
+      <c r="M175" s="3">
+        <v>68100</v>
+      </c>
+      <c r="N175" s="5"/>
+      <c r="O175" s="6"/>
+    </row>
+    <row r="176" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>44371</v>
       </c>
       <c r="B176" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C176" s="5"/>
+      <c r="D176" s="5"/>
+      <c r="E176" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F176" s="5"/>
+      <c r="G176" s="3">
+        <v>400</v>
+      </c>
+      <c r="H176" s="5"/>
+      <c r="I176" s="5"/>
+      <c r="J176" s="5"/>
+      <c r="K176" s="5"/>
+      <c r="L176" s="5"/>
+      <c r="M176" s="3">
+        <v>400</v>
+      </c>
+      <c r="N176" s="5"/>
+      <c r="O176" s="6"/>
+    </row>
+    <row r="177" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>44372</v>
       </c>
       <c r="B177" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C177" s="5"/>
+      <c r="D177" s="5"/>
+      <c r="E177" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F177" s="5"/>
+      <c r="G177" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H177" s="5"/>
+      <c r="I177" s="5"/>
+      <c r="J177" s="5"/>
+      <c r="K177" s="5"/>
+      <c r="L177" s="5"/>
+      <c r="M177" s="3">
+        <v>1000</v>
+      </c>
+      <c r="N177" s="5"/>
+      <c r="O177" s="7"/>
+    </row>
+    <row r="178" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>44373</v>
       </c>
       <c r="B178" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C178" s="5"/>
+      <c r="D178" s="5"/>
+      <c r="E178" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F178" s="5"/>
+      <c r="G178" s="3">
+        <v>645</v>
+      </c>
+      <c r="H178" s="5"/>
+      <c r="I178" s="5"/>
+      <c r="J178" s="5"/>
+      <c r="K178" s="5"/>
+      <c r="L178" s="5"/>
+      <c r="M178" s="3">
+        <v>645</v>
+      </c>
+      <c r="N178" s="5"/>
+      <c r="O178" s="7"/>
+    </row>
+    <row r="179" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>44374</v>
       </c>
       <c r="B179" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C179" s="5"/>
+      <c r="D179" s="5"/>
+      <c r="E179" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F179" s="5"/>
+      <c r="G179" s="3">
+        <v>645</v>
+      </c>
+      <c r="H179" s="5"/>
+      <c r="I179" s="5"/>
+      <c r="J179" s="5"/>
+      <c r="K179" s="5"/>
+      <c r="L179" s="5"/>
+      <c r="M179" s="3">
+        <v>645</v>
+      </c>
+      <c r="N179" s="5"/>
+      <c r="O179" s="6"/>
+    </row>
+    <row r="180" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>44375</v>
       </c>
       <c r="B180" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C180" s="5"/>
+      <c r="D180" s="5"/>
+      <c r="E180" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F180" s="3">
+        <v>5000</v>
+      </c>
+      <c r="G180" s="3">
+        <v>645</v>
+      </c>
+      <c r="H180" s="5"/>
+      <c r="I180" s="5"/>
+      <c r="J180" s="5"/>
+      <c r="K180" s="5"/>
+      <c r="L180" s="5"/>
+      <c r="M180" s="3">
+        <v>5645</v>
+      </c>
+      <c r="N180" s="5"/>
+      <c r="O180" s="7"/>
+    </row>
+    <row r="181" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>44376</v>
       </c>
       <c r="B181" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C181" s="5"/>
+      <c r="D181" s="3"/>
+      <c r="E181" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F181" s="5"/>
+      <c r="G181" s="3">
+        <v>645</v>
+      </c>
+      <c r="H181" s="5"/>
+      <c r="I181" s="5"/>
+      <c r="J181" s="5"/>
+      <c r="K181" s="5"/>
+      <c r="L181" s="5"/>
+      <c r="M181" s="3">
+        <v>645</v>
+      </c>
+      <c r="N181" s="5"/>
+      <c r="O181" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="182" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>44377</v>
       </c>
       <c r="B182" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C182" s="9"/>
+      <c r="D182" s="9"/>
+      <c r="E182" s="4">
+        <v>2300</v>
+      </c>
+      <c r="F182" s="9"/>
+      <c r="G182" s="10">
+        <v>645</v>
+      </c>
+      <c r="H182" s="10">
+        <v>62500</v>
+      </c>
+      <c r="I182" s="9"/>
+      <c r="J182" s="9"/>
+      <c r="K182" s="10">
+        <v>5000</v>
+      </c>
+      <c r="L182" s="10"/>
+      <c r="M182" s="10">
+        <v>70445</v>
+      </c>
+      <c r="N182" s="9"/>
+      <c r="O182" s="10">
+        <v>660620.16</v>
+      </c>
+    </row>
+    <row r="183" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>44378</v>
       </c>
       <c r="B183" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>44379</v>
       </c>
       <c r="B184" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>44380</v>
       </c>
       <c r="B185" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>44381</v>
       </c>
       <c r="B186" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>44382</v>
       </c>
       <c r="B187" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>44383</v>
       </c>
       <c r="B188" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>44384</v>
       </c>
       <c r="B189" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>44385</v>
       </c>
       <c r="B190" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>44386</v>
       </c>
       <c r="B191" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>44387</v>
       </c>
       <c r="B192" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>44388</v>
       </c>
       <c r="B193" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>44389</v>
       </c>
       <c r="B194" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>44390</v>
       </c>
       <c r="B195" s="2">
-        <f t="shared" ref="B195:B258" si="3">WEEKDAY(A195)</f>
+        <f t="shared" ref="B195:B258" si="4">WEEKDAY(A195)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>44391</v>
       </c>
       <c r="B196" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>44392</v>
       </c>
       <c r="B197" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>44393</v>
       </c>
       <c r="B198" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>44394</v>
       </c>
       <c r="B199" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>44395</v>
       </c>
       <c r="B200" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>44396</v>
       </c>
       <c r="B201" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>44397</v>
       </c>
       <c r="B202" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>44398</v>
       </c>
       <c r="B203" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>44399</v>
       </c>
       <c r="B204" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>44400</v>
       </c>
       <c r="B205" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>44401</v>
       </c>
       <c r="B206" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>44402</v>
       </c>
       <c r="B207" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>44403</v>
       </c>
       <c r="B208" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>44404</v>
       </c>
       <c r="B209" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>44405</v>
       </c>
       <c r="B210" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>44406</v>
       </c>
       <c r="B211" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>44407</v>
       </c>
       <c r="B212" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>44408</v>
       </c>
       <c r="B213" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>44409</v>
       </c>
       <c r="B214" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>44410</v>
       </c>
       <c r="B215" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>44411</v>
       </c>
       <c r="B216" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>44412</v>
       </c>
       <c r="B217" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>44413</v>
       </c>
       <c r="B218" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>44414</v>
       </c>
       <c r="B219" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>44415</v>
       </c>
       <c r="B220" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>44416</v>
       </c>
       <c r="B221" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>44417</v>
       </c>
       <c r="B222" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>44418</v>
       </c>
       <c r="B223" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>44419</v>
       </c>
       <c r="B224" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>44420</v>
       </c>
       <c r="B225" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>44421</v>
       </c>
       <c r="B226" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>44422</v>
       </c>
       <c r="B227" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>44423</v>
       </c>
       <c r="B228" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>44424</v>
       </c>
       <c r="B229" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>44425</v>
       </c>
       <c r="B230" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>44426</v>
       </c>
       <c r="B231" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>44427</v>
       </c>
       <c r="B232" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>44428</v>
       </c>
       <c r="B233" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>44429</v>
       </c>
       <c r="B234" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>44430</v>
       </c>
       <c r="B235" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>44431</v>
       </c>
       <c r="B236" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>44432</v>
       </c>
       <c r="B237" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>44433</v>
       </c>
       <c r="B238" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>44434</v>
       </c>
       <c r="B239" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>44435</v>
       </c>
       <c r="B240" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>44436</v>
       </c>
       <c r="B241" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>44437</v>
       </c>
       <c r="B242" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>44438</v>
       </c>
       <c r="B243" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>44439</v>
       </c>
       <c r="B244" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>44440</v>
       </c>
       <c r="B245" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>44441</v>
       </c>
       <c r="B246" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>44442</v>
       </c>
       <c r="B247" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>44443</v>
       </c>
       <c r="B248" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>44444</v>
       </c>
       <c r="B249" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>44445</v>
       </c>
       <c r="B250" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>44446</v>
       </c>
       <c r="B251" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>44447</v>
       </c>
       <c r="B252" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>44448</v>
       </c>
       <c r="B253" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>44449</v>
       </c>
       <c r="B254" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>44450</v>
       </c>
       <c r="B255" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>44451</v>
       </c>
       <c r="B256" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>44452</v>
       </c>
       <c r="B257" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>44453</v>
       </c>
       <c r="B258" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>44454</v>
       </c>
       <c r="B259" s="2">
-        <f t="shared" ref="B259:B322" si="4">WEEKDAY(A259)</f>
+        <f t="shared" ref="B259:B322" si="5">WEEKDAY(A259)</f>
         <v>4</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>44455</v>
       </c>
       <c r="B260" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>44456</v>
       </c>
       <c r="B261" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>44457</v>
       </c>
       <c r="B262" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>44458</v>
       </c>
       <c r="B263" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <v>44459</v>
       </c>
       <c r="B264" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
         <v>44460</v>
       </c>
       <c r="B265" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <v>44461</v>
       </c>
       <c r="B266" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <v>44462</v>
       </c>
       <c r="B267" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <v>44463</v>
       </c>
       <c r="B268" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <v>44464</v>
       </c>
       <c r="B269" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <v>44465</v>
       </c>
       <c r="B270" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <v>44466</v>
       </c>
       <c r="B271" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
         <v>44467</v>
       </c>
       <c r="B272" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <v>44468</v>
       </c>
       <c r="B273" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
         <v>44469</v>
       </c>
       <c r="B274" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
         <v>44470</v>
       </c>
       <c r="B275" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
         <v>44471</v>
       </c>
       <c r="B276" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
         <v>44472</v>
       </c>
       <c r="B277" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
         <v>44473</v>
       </c>
       <c r="B278" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
         <v>44474</v>
       </c>
       <c r="B279" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
         <v>44475</v>
       </c>
       <c r="B280" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
         <v>44476</v>
       </c>
       <c r="B281" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
         <v>44477</v>
       </c>
       <c r="B282" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
         <v>44478</v>
       </c>
       <c r="B283" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
         <v>44479</v>
       </c>
       <c r="B284" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
         <v>44480</v>
       </c>
       <c r="B285" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
         <v>44481</v>
       </c>
       <c r="B286" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
         <v>44482</v>
       </c>
       <c r="B287" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
         <v>44483</v>
       </c>
       <c r="B288" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
         <v>44484</v>
       </c>
       <c r="B289" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
         <v>44485</v>
       </c>
       <c r="B290" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
         <v>44486</v>
       </c>
       <c r="B291" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
         <v>44487</v>
       </c>
       <c r="B292" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
         <v>44488</v>
       </c>
       <c r="B293" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
         <v>44489</v>
       </c>
       <c r="B294" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
         <v>44490</v>
       </c>
       <c r="B295" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
         <v>44491</v>
       </c>
       <c r="B296" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
         <v>44492</v>
       </c>
       <c r="B297" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
         <v>44493</v>
       </c>
       <c r="B298" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
         <v>44494</v>
       </c>
       <c r="B299" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
         <v>44495</v>
       </c>
       <c r="B300" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
         <v>44496</v>
       </c>
       <c r="B301" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
         <v>44497</v>
       </c>
       <c r="B302" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
         <v>44498</v>
       </c>
       <c r="B303" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
         <v>44499</v>
       </c>
       <c r="B304" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
         <v>44500</v>
       </c>
       <c r="B305" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
         <v>44501</v>
       </c>
       <c r="B306" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
         <v>44502</v>
       </c>
       <c r="B307" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
         <v>44503</v>
       </c>
       <c r="B308" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
         <v>44504</v>
       </c>
       <c r="B309" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
         <v>44505</v>
       </c>
       <c r="B310" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
         <v>44506</v>
       </c>
       <c r="B311" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
         <v>44507</v>
       </c>
       <c r="B312" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
         <v>44508</v>
       </c>
       <c r="B313" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
         <v>44509</v>
       </c>
       <c r="B314" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315" s="1">
         <v>44510</v>
       </c>
       <c r="B315" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316" s="1">
         <v>44511</v>
       </c>
       <c r="B316" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
         <v>44512</v>
       </c>
       <c r="B317" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318" s="1">
         <v>44513</v>
       </c>
       <c r="B318" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319" s="1">
         <v>44514</v>
       </c>
       <c r="B319" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320" s="1">
         <v>44515</v>
       </c>
       <c r="B320" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321" s="1">
         <v>44516</v>
       </c>
       <c r="B321" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322" s="1">
         <v>44517</v>
       </c>
       <c r="B322" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323" s="1">
         <v>44518</v>
       </c>
       <c r="B323" s="2">
-        <f t="shared" ref="B323:B366" si="5">WEEKDAY(A323)</f>
+        <f t="shared" ref="B323:B366" si="6">WEEKDAY(A323)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324" s="1">
         <v>44519</v>
       </c>
       <c r="B324" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325" s="1">
         <v>44520</v>
       </c>
       <c r="B325" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326" s="1">
         <v>44521</v>
       </c>
       <c r="B326" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327" s="1">
         <v>44522</v>
       </c>
       <c r="B327" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328" s="1">
         <v>44523</v>
       </c>
       <c r="B328" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329" s="1">
         <v>44524</v>
       </c>
       <c r="B329" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330" s="1">
         <v>44525</v>
       </c>
       <c r="B330" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331" s="1">
         <v>44526</v>
       </c>
       <c r="B331" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332" s="1">
         <v>44527</v>
       </c>
       <c r="B332" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333" s="1">
         <v>44528</v>
       </c>
       <c r="B333" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334" s="1">
         <v>44529</v>
       </c>
       <c r="B334" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335" s="1">
         <v>44530</v>
       </c>
       <c r="B335" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A336" s="1">
         <v>44531</v>
       </c>
       <c r="B336" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A337" s="1">
         <v>44532</v>
       </c>
       <c r="B337" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338" s="1">
         <v>44533</v>
       </c>
       <c r="B338" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339" s="1">
         <v>44534</v>
       </c>
       <c r="B339" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340" s="1">
         <v>44535</v>
       </c>
       <c r="B340" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341" s="1">
         <v>44536</v>
       </c>
       <c r="B341" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342" s="1">
         <v>44537</v>
       </c>
       <c r="B342" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A343" s="1">
         <v>44538</v>
       </c>
       <c r="B343" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344" s="1">
         <v>44539</v>
       </c>
       <c r="B344" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345" s="1">
         <v>44540</v>
       </c>
       <c r="B345" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346" s="1">
         <v>44541</v>
       </c>
       <c r="B346" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347" s="1">
         <v>44542</v>
       </c>
       <c r="B347" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348" s="1">
         <v>44543</v>
       </c>
       <c r="B348" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A349" s="1">
         <v>44544</v>
       </c>
       <c r="B349" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A350" s="1">
         <v>44545</v>
       </c>
       <c r="B350" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A351" s="1">
         <v>44546</v>
       </c>
       <c r="B351" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A352" s="1">
         <v>44547</v>
       </c>
       <c r="B352" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A353" s="1">
         <v>44548</v>
       </c>
       <c r="B353" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A354" s="1">
         <v>44549</v>
       </c>
       <c r="B354" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A355" s="1">
         <v>44550</v>
       </c>
       <c r="B355" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A356" s="1">
         <v>44551</v>
       </c>
       <c r="B356" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A357" s="1">
         <v>44552</v>
       </c>
       <c r="B357" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A358" s="1">
         <v>44553</v>
       </c>
       <c r="B358" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A359" s="1">
         <v>44554</v>
       </c>
       <c r="B359" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A360" s="1">
         <v>44555</v>
       </c>
       <c r="B360" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A361" s="1">
         <v>44556</v>
       </c>
       <c r="B361" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A362" s="1">
         <v>44557</v>
       </c>
       <c r="B362" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A363" s="1">
         <v>44558</v>
       </c>
       <c r="B363" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A364" s="1">
         <v>44559</v>
       </c>
       <c r="B364" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A365" s="1">
         <v>44560</v>
       </c>
       <c r="B365" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A366" s="1">
         <v>44561</v>
       </c>
       <c r="B366" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
     </row>
